--- a/Vasey20/N2.xlsx
+++ b/Vasey20/N2.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03DB372F-1EC3-44E9-8D0C-8281E265CC6C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A2312-F537-4893-8D8B-6261C0B62484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2085" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -686,13 +691,22 @@
   </si>
   <si>
     <t xml:space="preserve"> C16033B-Spot 156</t>
+  </si>
+  <si>
+    <t>238 Error</t>
+  </si>
+  <si>
+    <t>206 Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +729,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -736,11 +755,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,20 +1077,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="3" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,8 +1100,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1089,8 +1117,14 @@
       <c r="C2" s="1">
         <v>420.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4">
+        <v>3.9713571616011336</v>
+      </c>
+      <c r="E2" s="4">
+        <v>36.206984720546643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1100,8 +1134,14 @@
       <c r="C3" s="1">
         <v>476.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <v>3.7158284825680141</v>
+      </c>
+      <c r="E3" s="4">
+        <v>24.082080096235956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1151,14 @@
       <c r="C4" s="1">
         <v>445.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <v>4.6724011375687553</v>
+      </c>
+      <c r="E4" s="4">
+        <v>26.896352446974021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,8 +1168,14 @@
       <c r="C5" s="1">
         <v>714.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4">
+        <v>4.8140950946447276</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50.216921980576672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1133,8 +1185,14 @@
       <c r="C6" s="1">
         <v>691.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4">
+        <v>4.5688847367104017</v>
+      </c>
+      <c r="E6" s="4">
+        <v>65.224548132365157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,8 +1202,14 @@
       <c r="C7" s="1">
         <v>415.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4">
+        <v>4.4162587476193949</v>
+      </c>
+      <c r="E7" s="4">
+        <v>21.858079691081258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1155,8 +1219,14 @@
       <c r="C8" s="1">
         <v>398.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4">
+        <v>5.3867790944572675</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25.967744548106396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,8 +1236,14 @@
       <c r="C9" s="1">
         <v>379.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4">
+        <v>3.8518564783703937</v>
+      </c>
+      <c r="E9" s="4">
+        <v>19.387552964221015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1177,8 +1253,14 @@
       <c r="C10" s="1">
         <v>366.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4">
+        <v>4.7402238555907559</v>
+      </c>
+      <c r="E10" s="4">
+        <v>27.660152635111587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,8 +1270,14 @@
       <c r="C11" s="1">
         <v>393.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4">
+        <v>4.3014200135257852</v>
+      </c>
+      <c r="E11" s="4">
+        <v>22.416770769402405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1199,8 +1287,14 @@
       <c r="C12" s="1">
         <v>429</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4">
+        <v>5.5602204147274392</v>
+      </c>
+      <c r="E12" s="4">
+        <v>28.847077861644067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1304,14 @@
       <c r="C13" s="1">
         <v>375.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4">
+        <v>4.249386161605031</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20.871242565440411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,8 +1321,14 @@
       <c r="C14" s="1">
         <v>381.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <v>4.2184038531258636</v>
+      </c>
+      <c r="E14" s="4">
+        <v>22.682753825856736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,8 +1338,14 @@
       <c r="C15" s="1">
         <v>345</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4">
+        <v>4.4131164904370905</v>
+      </c>
+      <c r="E15" s="4">
+        <v>17.803384381201312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1243,8 +1355,14 @@
       <c r="C16" s="1">
         <v>419.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <v>4.6787499577328049</v>
+      </c>
+      <c r="E16" s="4">
+        <v>22.462602571686091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1254,8 +1372,14 @@
       <c r="C17" s="1">
         <v>363.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <v>3.2241977055705036</v>
+      </c>
+      <c r="E17" s="4">
+        <v>25.917114030801571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1265,8 +1389,14 @@
       <c r="C18" s="1">
         <v>494.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <v>4.5203770149186084</v>
+      </c>
+      <c r="E18" s="4">
+        <v>27.457812992128424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1276,8 +1406,14 @@
       <c r="C19" s="1">
         <v>362.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <v>4.2862934636291072</v>
+      </c>
+      <c r="E19" s="4">
+        <v>19.446097119766932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1287,8 +1423,14 @@
       <c r="C20" s="1">
         <v>378.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <v>3.97496232216767</v>
+      </c>
+      <c r="E20" s="4">
+        <v>22.629298612222527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1298,8 +1440,14 @@
       <c r="C21" s="1">
         <v>394.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4">
+        <v>5.555117406762605</v>
+      </c>
+      <c r="E21" s="4">
+        <v>22.156512263363339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1309,8 +1457,14 @@
       <c r="C22" s="1">
         <v>380.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="4">
+        <v>4.5171023405956987</v>
+      </c>
+      <c r="E22" s="4">
+        <v>17.706144229242739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,8 +1474,14 @@
       <c r="C23" s="1">
         <v>414.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="4">
+        <v>4.4221222518097818</v>
+      </c>
+      <c r="E23" s="4">
+        <v>19.063782609855537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,8 +1491,14 @@
       <c r="C24" s="1">
         <v>426.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="4">
+        <v>4.239032194448157</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23.53409046251204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,8 +1508,14 @@
       <c r="C25" s="1">
         <v>399.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="4">
+        <v>4.0997862306749937</v>
+      </c>
+      <c r="E25" s="4">
+        <v>29.034506675425632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1353,8 +1525,14 @@
       <c r="C26" s="1">
         <v>416</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="4">
+        <v>4.296979433185129</v>
+      </c>
+      <c r="E26" s="4">
+        <v>24.314822495490347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1364,8 +1542,14 @@
       <c r="C27" s="1">
         <v>372.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="4">
+        <v>5.469267624991943</v>
+      </c>
+      <c r="E27" s="4">
+        <v>26.917074835829169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1375,8 +1559,14 @@
       <c r="C28" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="4">
+        <v>4.2479134688365718</v>
+      </c>
+      <c r="E28" s="4">
+        <v>26.745591280220196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1386,8 +1576,14 @@
       <c r="C29" s="1">
         <v>423.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4">
+        <v>4.6050047527108688</v>
+      </c>
+      <c r="E29" s="4">
+        <v>25.974763264147725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1397,8 +1593,14 @@
       <c r="C30" s="1">
         <v>414.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4">
+        <v>3.4928982925360685</v>
+      </c>
+      <c r="E30" s="4">
+        <v>15.141261351006051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1408,8 +1610,14 @@
       <c r="C31" s="1">
         <v>418.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <v>4.9068391978590853</v>
+      </c>
+      <c r="E31" s="4">
+        <v>29.852774186334614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1419,8 +1627,14 @@
       <c r="C32" s="1">
         <v>480.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="4">
+        <v>4.8469970175447941</v>
+      </c>
+      <c r="E32" s="4">
+        <v>30.322798647760948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1430,8 +1644,14 @@
       <c r="C33" s="1">
         <v>450.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4">
+        <v>2.8323442280439224</v>
+      </c>
+      <c r="E33" s="4">
+        <v>22.452986378892348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1441,8 +1661,14 @@
       <c r="C34" s="1">
         <v>421</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4">
+        <v>4.4392333027006998</v>
+      </c>
+      <c r="E34" s="4">
+        <v>23.852788822312846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1452,8 +1678,14 @@
       <c r="C35" s="1">
         <v>382.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4">
+        <v>5.5079737051571271</v>
+      </c>
+      <c r="E35" s="4">
+        <v>30.960226069823761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1463,8 +1695,14 @@
       <c r="C36" s="1">
         <v>478.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4">
+        <v>4.8801183657755018</v>
+      </c>
+      <c r="E36" s="4">
+        <v>35.889557867176961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1474,8 +1712,14 @@
       <c r="C37" s="1">
         <v>372.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4">
+        <v>5.8930998543077635</v>
+      </c>
+      <c r="E37" s="4">
+        <v>41.161356390085956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1485,8 +1729,14 @@
       <c r="C38" s="1">
         <v>352.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4">
+        <v>4.75141967018385</v>
+      </c>
+      <c r="E38" s="4">
+        <v>17.03555080800146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1496,8 +1746,14 @@
       <c r="C39" s="1">
         <v>416.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4">
+        <v>4.2907143699715959</v>
+      </c>
+      <c r="E39" s="4">
+        <v>24.685798021025875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1507,8 +1763,14 @@
       <c r="C40" s="1">
         <v>446.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4">
+        <v>5.1312683972392108</v>
+      </c>
+      <c r="E40" s="4">
+        <v>25.136402484693946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1518,8 +1780,14 @@
       <c r="C41" s="1">
         <v>406.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4">
+        <v>4.9464941153893562</v>
+      </c>
+      <c r="E41" s="4">
+        <v>33.064763132973951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1529,8 +1797,14 @@
       <c r="C42" s="1">
         <v>389.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="4">
+        <v>3.8135165794022612</v>
+      </c>
+      <c r="E42" s="4">
+        <v>35.620522274963832</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1540,8 +1814,14 @@
       <c r="C43" s="1">
         <v>380.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="4">
+        <v>5.1200696872919877</v>
+      </c>
+      <c r="E43" s="4">
+        <v>22.021016441164619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1551,8 +1831,14 @@
       <c r="C44" s="1">
         <v>367.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4">
+        <v>5.1293792413659958</v>
+      </c>
+      <c r="E44" s="4">
+        <v>26.671020151138293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1562,8 +1848,14 @@
       <c r="C45" s="1">
         <v>352.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="4">
+        <v>5.0258246557571624</v>
+      </c>
+      <c r="E45" s="4">
+        <v>26.983169229639458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1573,8 +1865,14 @@
       <c r="C46" s="1">
         <v>426.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4">
+        <v>4.565062797366096</v>
+      </c>
+      <c r="E46" s="4">
+        <v>23.469909747411236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1584,8 +1882,14 @@
       <c r="C47" s="1">
         <v>442.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4">
+        <v>5.3531609996491909</v>
+      </c>
+      <c r="E47" s="4">
+        <v>24.322753385555842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1595,8 +1899,14 @@
       <c r="C48" s="1">
         <v>364</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4">
+        <v>4.3925129569403225</v>
+      </c>
+      <c r="E48" s="4">
+        <v>25.758565273879697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1606,8 +1916,14 @@
       <c r="C49" s="1">
         <v>428</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4">
+        <v>4.436794892403725</v>
+      </c>
+      <c r="E49" s="4">
+        <v>19.290963386653914</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1617,8 +1933,14 @@
       <c r="C50" s="1">
         <v>465.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4">
+        <v>3.7634899159233726</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43.673827927884759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1628,8 +1950,14 @@
       <c r="C51" s="1">
         <v>391.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4">
+        <v>4.2287371877767725</v>
+      </c>
+      <c r="E51" s="4">
+        <v>20.504469645845546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1639,8 +1967,14 @@
       <c r="C52" s="1">
         <v>414.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4">
+        <v>4.3781593359334181</v>
+      </c>
+      <c r="E52" s="4">
+        <v>26.435332436183529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1650,8 +1984,14 @@
       <c r="C53" s="1">
         <v>441.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="4">
+        <v>5.6572776012565669</v>
+      </c>
+      <c r="E53" s="4">
+        <v>23.270000274700692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1661,8 +2001,14 @@
       <c r="C54" s="1">
         <v>394.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="4">
+        <v>4.1146630557569779</v>
+      </c>
+      <c r="E54" s="4">
+        <v>26.838879837256144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1672,8 +2018,14 @@
       <c r="C55" s="1">
         <v>387.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="4">
+        <v>3.4359551703252009</v>
+      </c>
+      <c r="E55" s="4">
+        <v>21.803732066967001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1683,8 +2035,14 @@
       <c r="C56" s="1">
         <v>394.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4">
+        <v>4.740685870799922</v>
+      </c>
+      <c r="E56" s="4">
+        <v>23.906640775889088</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1694,8 +2052,14 @@
       <c r="C57" s="1">
         <v>460.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="4">
+        <v>4.723240139676335</v>
+      </c>
+      <c r="E57" s="4">
+        <v>33.208520380064357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1705,8 +2069,14 @@
       <c r="C58" s="1">
         <v>481.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="4">
+        <v>3.8609886782847411</v>
+      </c>
+      <c r="E58" s="4">
+        <v>23.037997457040746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1716,8 +2086,14 @@
       <c r="C59" s="1">
         <v>391.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="4">
+        <v>4.9547136134492007</v>
+      </c>
+      <c r="E59" s="4">
+        <v>36.37673476165628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1727,8 +2103,14 @@
       <c r="C60" s="1">
         <v>372.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="4">
+        <v>4.1458079060112141</v>
+      </c>
+      <c r="E60" s="4">
+        <v>27.904309915336825</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1738,8 +2120,14 @@
       <c r="C61" s="1">
         <v>436.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="4">
+        <v>3.7851874504423506</v>
+      </c>
+      <c r="E61" s="4">
+        <v>23.959472478843765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1749,8 +2137,14 @@
       <c r="C62" s="1">
         <v>399.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="4">
+        <v>4.4769643068308653</v>
+      </c>
+      <c r="E62" s="4">
+        <v>25.888972334840901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1760,8 +2154,14 @@
       <c r="C63" s="1">
         <v>393.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="4">
+        <v>5.4485297245687718</v>
+      </c>
+      <c r="E63" s="4">
+        <v>25.392976653097037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1771,8 +2171,14 @@
       <c r="C64" s="1">
         <v>415</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="4">
+        <v>3.9523209451211017</v>
+      </c>
+      <c r="E64" s="4">
+        <v>22.405776106353613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -1782,8 +2188,14 @@
       <c r="C65" s="1">
         <v>351.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="4">
+        <v>5.6434597210664492</v>
+      </c>
+      <c r="E65" s="4">
+        <v>22.016929433060341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -1793,8 +2205,14 @@
       <c r="C66" s="1">
         <v>392.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="4">
+        <v>3.5379728495153699</v>
+      </c>
+      <c r="E66" s="4">
+        <v>26.148254501419871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -1804,8 +2222,14 @@
       <c r="C67" s="1">
         <v>391.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="4">
+        <v>5.4073010039888061</v>
+      </c>
+      <c r="E67" s="4">
+        <v>27.961345892636103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -1815,8 +2239,14 @@
       <c r="C68" s="1">
         <v>401.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="4">
+        <v>4.3221547613283917</v>
+      </c>
+      <c r="E68" s="4">
+        <v>24.305722980383507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -1826,8 +2256,14 @@
       <c r="C69" s="1">
         <v>396.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="4">
+        <v>4.690008402537984</v>
+      </c>
+      <c r="E69" s="4">
+        <v>18.721840172974311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -1837,8 +2273,14 @@
       <c r="C70" s="1">
         <v>391.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="4">
+        <v>4.8190448292890267</v>
+      </c>
+      <c r="E70" s="4">
+        <v>26.80868726320648</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -1848,8 +2290,14 @@
       <c r="C71" s="1">
         <v>420.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="4">
+        <v>3.4845286287140311</v>
+      </c>
+      <c r="E71" s="4">
+        <v>22.939983256870306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -1859,8 +2307,14 @@
       <c r="C72" s="1">
         <v>433.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="4">
+        <v>5.1539333531767682</v>
+      </c>
+      <c r="E72" s="4">
+        <v>23.183617326421086</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -1870,8 +2324,14 @@
       <c r="C73" s="1">
         <v>397.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="4">
+        <v>5.1315562969122084</v>
+      </c>
+      <c r="E73" s="4">
+        <v>19.829667619121608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -1881,8 +2341,14 @@
       <c r="C74" s="1">
         <v>451.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="4">
+        <v>4.6063857051405535</v>
+      </c>
+      <c r="E74" s="4">
+        <v>26.857828629327997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -1892,8 +2358,14 @@
       <c r="C75" s="1">
         <v>378</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="4">
+        <v>4.0200135445996636</v>
+      </c>
+      <c r="E75" s="4">
+        <v>28.048437959269222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -1903,8 +2375,14 @@
       <c r="C76" s="1">
         <v>405.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="4">
+        <v>5.6356117746433938</v>
+      </c>
+      <c r="E76" s="4">
+        <v>25.039306788444861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -1914,8 +2392,14 @@
       <c r="C77" s="1">
         <v>399.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="4">
+        <v>4.8454000118937302</v>
+      </c>
+      <c r="E77" s="4">
+        <v>22.79481399978215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1925,8 +2409,14 @@
       <c r="C78" s="1">
         <v>465.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="4">
+        <v>4.5993135951696615</v>
+      </c>
+      <c r="E78" s="4">
+        <v>27.099762484884963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -1936,8 +2426,14 @@
       <c r="C79" s="1">
         <v>407.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="4">
+        <v>5.2834844085875261</v>
+      </c>
+      <c r="E79" s="4">
+        <v>19.633557709335008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -1947,8 +2443,14 @@
       <c r="C80" s="1">
         <v>385.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="4">
+        <v>5.9448022221288852</v>
+      </c>
+      <c r="E80" s="4">
+        <v>23.642768856027345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -1958,8 +2460,14 @@
       <c r="C81" s="1">
         <v>396.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="4">
+        <v>4.5707327127686597</v>
+      </c>
+      <c r="E81" s="4">
+        <v>19.571288785270355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -1969,8 +2477,14 @@
       <c r="C82" s="1">
         <v>400.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="4">
+        <v>4.3152863946849038</v>
+      </c>
+      <c r="E82" s="4">
+        <v>23.647876228432921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -1980,8 +2494,14 @@
       <c r="C83" s="1">
         <v>369.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="4">
+        <v>3.8038895449500387</v>
+      </c>
+      <c r="E83" s="4">
+        <v>23.175207646684555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -1991,8 +2511,14 @@
       <c r="C84" s="1">
         <v>395.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="4">
+        <v>5.4053101249355677</v>
+      </c>
+      <c r="E84" s="4">
+        <v>25.385185116652849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2002,8 +2528,14 @@
       <c r="C85" s="1">
         <v>358.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="4">
+        <v>5.132820489811138</v>
+      </c>
+      <c r="E85" s="4">
+        <v>20.068367587911212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2013,8 +2545,14 @@
       <c r="C86" s="1">
         <v>391.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="4">
+        <v>6.1086295636953594</v>
+      </c>
+      <c r="E86" s="4">
+        <v>22.607545055218537</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2024,8 +2562,14 @@
       <c r="C87" s="1">
         <v>420.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="4">
+        <v>4.4493633397933934</v>
+      </c>
+      <c r="E87" s="4">
+        <v>26.296135202296256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2035,8 +2579,14 @@
       <c r="C88" s="1">
         <v>314.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="4">
+        <v>4.081022846649887</v>
+      </c>
+      <c r="E88" s="4">
+        <v>31.3897560659411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2046,8 +2596,14 @@
       <c r="C89" s="1">
         <v>414.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="4">
+        <v>5.4982209905673187</v>
+      </c>
+      <c r="E89" s="4">
+        <v>25.180730089678804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2057,8 +2613,14 @@
       <c r="C90" s="1">
         <v>375.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="4">
+        <v>4.8902417955714839</v>
+      </c>
+      <c r="E90" s="4">
+        <v>26.058519886303429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2068,8 +2630,14 @@
       <c r="C91" s="1">
         <v>385.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="4">
+        <v>5.3869544247129397</v>
+      </c>
+      <c r="E91" s="4">
+        <v>22.36804932744289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2079,8 +2647,14 @@
       <c r="C92" s="1">
         <v>355.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="4">
+        <v>3.2674979487193525</v>
+      </c>
+      <c r="E92" s="4">
+        <v>21.674114496043074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2090,8 +2664,14 @@
       <c r="C93" s="1">
         <v>358.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="4">
+        <v>4.4586621692840254</v>
+      </c>
+      <c r="E93" s="4">
+        <v>27.215331921842477</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2101,8 +2681,14 @@
       <c r="C94" s="1">
         <v>330.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="4">
+        <v>5.2955784556023104</v>
+      </c>
+      <c r="E94" s="4">
+        <v>20.708930780668538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2112,8 +2698,14 @@
       <c r="C95" s="1">
         <v>332.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="4">
+        <v>5.3041823652133928</v>
+      </c>
+      <c r="E95" s="4">
+        <v>38.116526345144592</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2123,8 +2715,14 @@
       <c r="C96" s="1">
         <v>448.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="4">
+        <v>3.7556395530566533</v>
+      </c>
+      <c r="E96" s="4">
+        <v>25.788565615833789</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2134,8 +2732,14 @@
       <c r="C97" s="1">
         <v>360.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="4">
+        <v>5.5564492645141854</v>
+      </c>
+      <c r="E97" s="4">
+        <v>30.295998467890144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2145,8 +2749,14 @@
       <c r="C98" s="1">
         <v>390.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="4">
+        <v>5.154735100455099</v>
+      </c>
+      <c r="E98" s="4">
+        <v>27.006489757194601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2156,8 +2766,14 @@
       <c r="C99" s="1">
         <v>419.9</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="4">
+        <v>4.6756204680499991</v>
+      </c>
+      <c r="E99" s="4">
+        <v>25.417244124423149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2167,8 +2783,14 @@
       <c r="C100" s="1">
         <v>429.7</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="4">
+        <v>5.5260687741118772</v>
+      </c>
+      <c r="E100" s="4">
+        <v>39.127842215147183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2178,8 +2800,14 @@
       <c r="C101" s="1">
         <v>404.8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="4">
+        <v>5.8348419517096204</v>
+      </c>
+      <c r="E101" s="4">
+        <v>28.002192542401247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2189,8 +2817,14 @@
       <c r="C102" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="4">
+        <v>6.4656165290100489</v>
+      </c>
+      <c r="E102" s="4">
+        <v>27.955521239655468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2200,8 +2834,14 @@
       <c r="C103" s="1">
         <v>378.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="4">
+        <v>6.3149352946821011</v>
+      </c>
+      <c r="E103" s="4">
+        <v>21.003224308728988</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2211,8 +2851,14 @@
       <c r="C104" s="1">
         <v>355.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="4">
+        <v>4.2903915534502346</v>
+      </c>
+      <c r="E104" s="4">
+        <v>24.954743962889552</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2222,8 +2868,14 @@
       <c r="C105" s="1">
         <v>361.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="4">
+        <v>5.0693822831976831</v>
+      </c>
+      <c r="E105" s="4">
+        <v>24.057166299207182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2233,8 +2885,14 @@
       <c r="C106" s="1">
         <v>392.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="4">
+        <v>3.2077651046273559</v>
+      </c>
+      <c r="E106" s="4">
+        <v>22.081740842042365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2244,8 +2902,14 @@
       <c r="C107" s="1">
         <v>374.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="4">
+        <v>4.4918700490187291</v>
+      </c>
+      <c r="E107" s="4">
+        <v>23.249227313851407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -2255,8 +2919,14 @@
       <c r="C108" s="1">
         <v>390.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="4">
+        <v>5.1493547898707277</v>
+      </c>
+      <c r="E108" s="4">
+        <v>21.478517881365121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -2266,8 +2936,14 @@
       <c r="C109" s="1">
         <v>389.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="4">
+        <v>4.0660026969601404</v>
+      </c>
+      <c r="E109" s="4">
+        <v>21.800624253191131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2277,8 +2953,14 @@
       <c r="C110" s="1">
         <v>405.4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="4">
+        <v>4.5977086628493851</v>
+      </c>
+      <c r="E110" s="4">
+        <v>26.340859204802229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -2288,8 +2970,14 @@
       <c r="C111" s="1">
         <v>392.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="4">
+        <v>4.9285182035720254</v>
+      </c>
+      <c r="E111" s="4">
+        <v>39.217861318592696</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2299,8 +2987,14 @@
       <c r="C112" s="1">
         <v>408.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="4">
+        <v>4.8181175541956804</v>
+      </c>
+      <c r="E112" s="4">
+        <v>24.624101901225771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -2310,8 +3004,14 @@
       <c r="C113" s="1">
         <v>386.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="4">
+        <v>5.2697522338631302</v>
+      </c>
+      <c r="E113" s="4">
+        <v>26.008149673920173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -2321,8 +3021,14 @@
       <c r="C114" s="1">
         <v>368.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="4">
+        <v>4.4224185220989796</v>
+      </c>
+      <c r="E114" s="4">
+        <v>22.475012304714767</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -2332,8 +3038,14 @@
       <c r="C115" s="1">
         <v>398</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="4">
+        <v>4.3688965616122744</v>
+      </c>
+      <c r="E115" s="4">
+        <v>25.910752545142572</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -2343,8 +3055,14 @@
       <c r="C116" s="1">
         <v>370.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="4">
+        <v>4.107025904896858</v>
+      </c>
+      <c r="E116" s="4">
+        <v>20.885985774943151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -2354,8 +3072,14 @@
       <c r="C117" s="1">
         <v>401.1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="4">
+        <v>4.2511762297606595</v>
+      </c>
+      <c r="E117" s="4">
+        <v>26.527318251385026</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -2365,8 +3089,14 @@
       <c r="C118" s="1">
         <v>384</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="4">
+        <v>5.3299597695350656</v>
+      </c>
+      <c r="E118" s="4">
+        <v>23.033259202537607</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -2376,8 +3106,14 @@
       <c r="C119" s="1">
         <v>478.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="4">
+        <v>4.5754416591383915</v>
+      </c>
+      <c r="E119" s="4">
+        <v>45.66102375270151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -2387,8 +3123,14 @@
       <c r="C120" s="1">
         <v>358.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="4">
+        <v>5.0633812334379229</v>
+      </c>
+      <c r="E120" s="4">
+        <v>19.935882309227821</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -2398,8 +3140,14 @@
       <c r="C121" s="1">
         <v>413.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="4">
+        <v>3.2694868594466584</v>
+      </c>
+      <c r="E121" s="4">
+        <v>30.085258731606132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -2409,8 +3157,14 @@
       <c r="C122" s="1">
         <v>422.8</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="4">
+        <v>4.0249817381321407</v>
+      </c>
+      <c r="E122" s="4">
+        <v>28.205308394691173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -2420,8 +3174,14 @@
       <c r="C123" s="1">
         <v>381.2</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="4">
+        <v>3.7769961469999771</v>
+      </c>
+      <c r="E123" s="4">
+        <v>22.340266631355263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -2431,8 +3191,14 @@
       <c r="C124" s="1">
         <v>655.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="4">
+        <v>6.7555226649600115</v>
+      </c>
+      <c r="E124" s="4">
+        <v>33.267214795642701</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -2442,8 +3208,14 @@
       <c r="C125" s="1">
         <v>429.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="4">
+        <v>5.0239946993716842</v>
+      </c>
+      <c r="E125" s="4">
+        <v>37.160337547095452</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -2453,8 +3225,14 @@
       <c r="C126" s="1">
         <v>506.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="4">
+        <v>3.9988006839940624</v>
+      </c>
+      <c r="E126" s="4">
+        <v>25.518761375985974</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -2464,8 +3242,14 @@
       <c r="C127" s="1">
         <v>542.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="4">
+        <v>5.327996596588946</v>
+      </c>
+      <c r="E127" s="4">
+        <v>34.200788494116068</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -2475,8 +3259,14 @@
       <c r="C128" s="1">
         <v>418.4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="4">
+        <v>4.6684240634514254</v>
+      </c>
+      <c r="E128" s="4">
+        <v>31.186767377794524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -2486,8 +3276,14 @@
       <c r="C129" s="1">
         <v>340.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="4">
+        <v>4.0090921345206709</v>
+      </c>
+      <c r="E129" s="4">
+        <v>19.949484780463564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -2497,8 +3293,14 @@
       <c r="C130" s="1">
         <v>748.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="4">
+        <v>4.3629536937462206</v>
+      </c>
+      <c r="E130" s="4">
+        <v>70.599674075267217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -2508,8 +3310,14 @@
       <c r="C131" s="1">
         <v>403.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="4">
+        <v>4.6128187297282466</v>
+      </c>
+      <c r="E131" s="4">
+        <v>27.891397709250214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -2519,8 +3327,14 @@
       <c r="C132" s="1">
         <v>418.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="4">
+        <v>4.5612435364145938</v>
+      </c>
+      <c r="E132" s="4">
+        <v>22.927820733246477</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -2530,8 +3344,14 @@
       <c r="C133" s="1">
         <v>1390.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="4">
+        <v>7.0375530801373429</v>
+      </c>
+      <c r="E133" s="4">
+        <v>105.14332458145452</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -2541,8 +3361,14 @@
       <c r="C134" s="1">
         <v>431.9</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="4">
+        <v>4.6909850209788715</v>
+      </c>
+      <c r="E134" s="4">
+        <v>27.523688123499824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -2552,8 +3378,14 @@
       <c r="C135" s="1">
         <v>422.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="4">
+        <v>4.2126670977925471</v>
+      </c>
+      <c r="E135" s="4">
+        <v>34.767042658746789</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -2563,8 +3395,14 @@
       <c r="C136" s="1">
         <v>422.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="4">
+        <v>4.5165701578951882</v>
+      </c>
+      <c r="E136" s="4">
+        <v>21.463389690830496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -2574,8 +3412,14 @@
       <c r="C137" s="1">
         <v>421</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="4">
+        <v>4.0284527178831411</v>
+      </c>
+      <c r="E137" s="4">
+        <v>26.6423367700705</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -2585,8 +3429,14 @@
       <c r="C138" s="1">
         <v>418.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="4">
+        <v>4.0710775714917702</v>
+      </c>
+      <c r="E138" s="4">
+        <v>25.633852680217245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -2596,8 +3446,14 @@
       <c r="C139" s="1">
         <v>448.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="4">
+        <v>4.171301339947604</v>
+      </c>
+      <c r="E139" s="4">
+        <v>26.432652818720385</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -2607,8 +3463,14 @@
       <c r="C140" s="1">
         <v>396.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="4">
+        <v>4.6183199559317814</v>
+      </c>
+      <c r="E140" s="4">
+        <v>24.238639385035611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -2618,8 +3480,14 @@
       <c r="C141" s="1">
         <v>405.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="4">
+        <v>4.5099561065703142</v>
+      </c>
+      <c r="E141" s="4">
+        <v>27.031989619468931</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -2629,8 +3497,14 @@
       <c r="C142" s="1">
         <v>387.2</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="4">
+        <v>6.4090121669872815</v>
+      </c>
+      <c r="E142" s="4">
+        <v>26.684681887577625</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -2640,8 +3514,14 @@
       <c r="C143" s="1">
         <v>428.6</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="4">
+        <v>4.6121896736166264</v>
+      </c>
+      <c r="E143" s="4">
+        <v>25.828153363297986</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -2651,8 +3531,14 @@
       <c r="C144" s="1">
         <v>470</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="4">
+        <v>5.8178608347292595</v>
+      </c>
+      <c r="E144" s="4">
+        <v>28.574064705999746</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -2662,8 +3548,14 @@
       <c r="C145" s="1">
         <v>466.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="4">
+        <v>6.3452943192848181</v>
+      </c>
+      <c r="E145" s="4">
+        <v>19.648968112947216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -2673,8 +3565,14 @@
       <c r="C146" s="1">
         <v>502.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="4">
+        <v>4.9671951480209486</v>
+      </c>
+      <c r="E146" s="4">
+        <v>23.949211140946545</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -2684,8 +3582,14 @@
       <c r="C147" s="1">
         <v>544.79999999999995</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="4">
+        <v>6.2449938045428439</v>
+      </c>
+      <c r="E147" s="4">
+        <v>19.481448251969596</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -2695,8 +3599,14 @@
       <c r="C148" s="1">
         <v>572.70000000000005</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="4">
+        <v>6.060066547577037</v>
+      </c>
+      <c r="E148" s="4">
+        <v>21.645338575500944</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -2706,8 +3616,14 @@
       <c r="C149" s="1">
         <v>540.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="4">
+        <v>5.9421389124335633</v>
+      </c>
+      <c r="E149" s="4">
+        <v>22.943955863401357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -2717,8 +3633,14 @@
       <c r="C150" s="1">
         <v>518.70000000000005</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="4">
+        <v>6.9152872440250235</v>
+      </c>
+      <c r="E150" s="4">
+        <v>16.494876391042311</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -2728,8 +3650,14 @@
       <c r="C151" s="1">
         <v>608.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="4">
+        <v>7.7880778813299685</v>
+      </c>
+      <c r="E151" s="4">
+        <v>32.153356216254679</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -2739,8 +3667,14 @@
       <c r="C152" s="1">
         <v>554.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="4">
+        <v>5.3705160240893406</v>
+      </c>
+      <c r="E152" s="4">
+        <v>15.990466879752773</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -2750,8 +3684,14 @@
       <c r="C153" s="1">
         <v>542.70000000000005</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="4">
+        <v>6.6686254707381067</v>
+      </c>
+      <c r="E153" s="4">
+        <v>23.266590012272047</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -2761,8 +3701,14 @@
       <c r="C154" s="1">
         <v>559.20000000000005</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="4">
+        <v>5.0649560197623487</v>
+      </c>
+      <c r="E154" s="4">
+        <v>18.68627438840349</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -2772,8 +3718,14 @@
       <c r="C155" s="1">
         <v>563.6</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="4">
+        <v>8.5042555543014373</v>
+      </c>
+      <c r="E155" s="4">
+        <v>19.714590306445928</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -2783,8 +3735,14 @@
       <c r="C156" s="1">
         <v>574.6</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="4">
+        <v>7.3536646161076646</v>
+      </c>
+      <c r="E156" s="4">
+        <v>45.792903838720008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -2794,8 +3752,14 @@
       <c r="C157" s="1">
         <v>539.6</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="4">
+        <v>6.9002940515874798</v>
+      </c>
+      <c r="E157" s="4">
+        <v>29.549329593167954</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -2805,8 +3769,14 @@
       <c r="C158" s="1">
         <v>547.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="4">
+        <v>5.7950171600285216</v>
+      </c>
+      <c r="E158" s="4">
+        <v>28.94961465138897</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -2816,8 +3786,14 @@
       <c r="C159" s="1">
         <v>575.70000000000005</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="4">
+        <v>8.0738832869456019</v>
+      </c>
+      <c r="E159" s="4">
+        <v>27.467904803027693</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -2827,8 +3803,14 @@
       <c r="C160" s="1">
         <v>625.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="4">
+        <v>9.0497876248321631</v>
+      </c>
+      <c r="E160" s="4">
+        <v>28.857273035787159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -2838,8 +3820,14 @@
       <c r="C161" s="1">
         <v>584.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="4">
+        <v>6.7176700450276599</v>
+      </c>
+      <c r="E161" s="4">
+        <v>21.039402472002848</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -2849,8 +3837,14 @@
       <c r="C162" s="1">
         <v>597</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="4">
+        <v>7.1079608527306277</v>
+      </c>
+      <c r="E162" s="4">
+        <v>25.465457290926622</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -2860,8 +3854,14 @@
       <c r="C163" s="1">
         <v>572.9</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="4">
+        <v>5.9157893388320417</v>
+      </c>
+      <c r="E163" s="4">
+        <v>20.791917380075006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -2871,8 +3871,14 @@
       <c r="C164" s="1">
         <v>599.6</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="4">
+        <v>5.5410790064061644</v>
+      </c>
+      <c r="E164" s="4">
+        <v>34.513405467985478</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -2882,8 +3888,14 @@
       <c r="C165" s="1">
         <v>660.7</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="4">
+        <v>5.8781666980912632</v>
+      </c>
+      <c r="E165" s="4">
+        <v>27.276253605674924</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -2893,8 +3905,14 @@
       <c r="C166" s="1">
         <v>543.79999999999995</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="4">
+        <v>6.2158706283848346</v>
+      </c>
+      <c r="E166" s="4">
+        <v>21.825229242716489</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -2904,8 +3922,14 @@
       <c r="C167" s="1">
         <v>572.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="4">
+        <v>7.5391093433982519</v>
+      </c>
+      <c r="E167" s="4">
+        <v>25.63165774717271</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -2915,8 +3939,14 @@
       <c r="C168" s="1">
         <v>583</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="4">
+        <v>6.4409750858456505</v>
+      </c>
+      <c r="E168" s="4">
+        <v>26.055595594448391</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -2926,8 +3956,14 @@
       <c r="C169" s="1">
         <v>559.20000000000005</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="4">
+        <v>7.6912795739847297</v>
+      </c>
+      <c r="E169" s="4">
+        <v>19.688571437825544</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -2937,8 +3973,14 @@
       <c r="C170" s="1">
         <v>551.4</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="4">
+        <v>7.6729872758172064</v>
+      </c>
+      <c r="E170" s="4">
+        <v>19.654251229389729</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -2948,8 +3990,14 @@
       <c r="C171" s="1">
         <v>597.4</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="4">
+        <v>6.8143139613903827</v>
+      </c>
+      <c r="E171" s="4">
+        <v>17.360648958377737</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -2959,8 +4007,14 @@
       <c r="C172" s="1">
         <v>721.8</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="4">
+        <v>7.2334242015442669</v>
+      </c>
+      <c r="E172" s="4">
+        <v>30.650779815829424</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -2970,8 +4024,14 @@
       <c r="C173" s="1">
         <v>609.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="4">
+        <v>6.9617056237996167</v>
+      </c>
+      <c r="E173" s="4">
+        <v>24.899739229658394</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -2981,8 +4041,14 @@
       <c r="C174" s="1">
         <v>619.1</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="4">
+        <v>6.9730623825800535</v>
+      </c>
+      <c r="E174" s="4">
+        <v>21.594069547030472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -2992,8 +4058,14 @@
       <c r="C175" s="1">
         <v>591.9</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="4">
+        <v>8.1821895318212228</v>
+      </c>
+      <c r="E175" s="4">
+        <v>23.078465762568953</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3003,8 +4075,14 @@
       <c r="C176" s="1">
         <v>635.20000000000005</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="4">
+        <v>7.3250736795023954</v>
+      </c>
+      <c r="E176" s="4">
+        <v>18.45878491531181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -3014,8 +4092,14 @@
       <c r="C177" s="1">
         <v>669.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="4">
+        <v>9.005621441466019</v>
+      </c>
+      <c r="E177" s="4">
+        <v>51.322654640281712</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -3025,8 +4109,14 @@
       <c r="C178" s="1">
         <v>629.4</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="4">
+        <v>7.2524208714092993</v>
+      </c>
+      <c r="E178" s="4">
+        <v>25.500648834051503</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -3036,8 +4126,14 @@
       <c r="C179" s="1">
         <v>636.70000000000005</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="4">
+        <v>9.5170981229000517</v>
+      </c>
+      <c r="E179" s="4">
+        <v>22.297768313124095</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -3047,8 +4143,14 @@
       <c r="C180" s="1">
         <v>674</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="4">
+        <v>10.692078420231269</v>
+      </c>
+      <c r="E180" s="4">
+        <v>19.961207070719865</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3058,8 +4160,14 @@
       <c r="C181" s="1">
         <v>647.29999999999995</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="4">
+        <v>8.5756229393392118</v>
+      </c>
+      <c r="E181" s="4">
+        <v>25.68004604025424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -3069,8 +4177,14 @@
       <c r="C182" s="1">
         <v>689.1</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="4">
+        <v>7.4995369365171882</v>
+      </c>
+      <c r="E182" s="4">
+        <v>24.458405879745044</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3080,8 +4194,14 @@
       <c r="C183" s="1">
         <v>879.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="4">
+        <v>21.908631708283735</v>
+      </c>
+      <c r="E183" s="4">
+        <v>33.820933042715865</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -3091,8 +4211,14 @@
       <c r="C184" s="1">
         <v>1026.9000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="4">
+        <v>14.328880875728316</v>
+      </c>
+      <c r="E184" s="4">
+        <v>26.943405855069784</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3102,8 +4228,14 @@
       <c r="C185" s="1">
         <v>1514.9</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="4">
+        <v>20.984950370806587</v>
+      </c>
+      <c r="E185" s="4">
+        <v>37.39512118850439</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -3113,8 +4245,14 @@
       <c r="C186" s="1">
         <v>1780.4</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="4">
+        <v>14.285420763953084</v>
+      </c>
+      <c r="E186" s="4">
+        <v>15.639453349662858</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3124,8 +4262,14 @@
       <c r="C187" s="1">
         <v>1802.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="4">
+        <v>15.988644991945421</v>
+      </c>
+      <c r="E187" s="4">
+        <v>15.728793772738527</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3135,8 +4279,14 @@
       <c r="C188" s="1">
         <v>1835</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="4">
+        <v>14.35508396605087</v>
+      </c>
+      <c r="E188" s="4">
+        <v>16.909785493946515</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -3146,8 +4296,14 @@
       <c r="C189" s="1">
         <v>1853.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="4">
+        <v>14.889439143330378</v>
+      </c>
+      <c r="E189" s="4">
+        <v>13.978908961531033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -3157,8 +4313,14 @@
       <c r="C190" s="1">
         <v>1859.1</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="4">
+        <v>16.786565972205608</v>
+      </c>
+      <c r="E190" s="4">
+        <v>12.328481176751552</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -3168,8 +4330,14 @@
       <c r="C191" s="1">
         <v>1878.4</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="4">
+        <v>21.764860926105484</v>
+      </c>
+      <c r="E191" s="4">
+        <v>19.983203760527658</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -3179,8 +4347,14 @@
       <c r="C192" s="1">
         <v>1881.7</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="4">
+        <v>22.778061171327067</v>
+      </c>
+      <c r="E192" s="4">
+        <v>16.31173552528378</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3190,8 +4364,14 @@
       <c r="C193" s="1">
         <v>1883.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="4">
+        <v>18.543258323844384</v>
+      </c>
+      <c r="E193" s="4">
+        <v>20.030409259587032</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -3201,8 +4381,14 @@
       <c r="C194" s="1">
         <v>1884.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="4">
+        <v>25.068427206329375</v>
+      </c>
+      <c r="E194" s="4">
+        <v>16.343507316687123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -3212,8 +4398,14 @@
       <c r="C195" s="1">
         <v>1887.9</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="4">
+        <v>26.324303397767949</v>
+      </c>
+      <c r="E195" s="4">
+        <v>24.891166065365837</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -3223,8 +4415,14 @@
       <c r="C196" s="1">
         <v>1895.7</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="4">
+        <v>21.93839380834595</v>
+      </c>
+      <c r="E196" s="4">
+        <v>23.481355923597107</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -3234,8 +4432,14 @@
       <c r="C197" s="1">
         <v>1927.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="4">
+        <v>18.978179872463102</v>
+      </c>
+      <c r="E197" s="4">
+        <v>14.193151967823496</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -3245,8 +4449,14 @@
       <c r="C198" s="1">
         <v>1933.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="4">
+        <v>13.016936481299467</v>
+      </c>
+      <c r="E198" s="4">
+        <v>15.153514918694782</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -3256,8 +4466,14 @@
       <c r="C199" s="1">
         <v>1946.1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="4">
+        <v>18.524018568646397</v>
+      </c>
+      <c r="E199" s="4">
+        <v>18.581179505070054</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -3267,8 +4483,14 @@
       <c r="C200" s="1">
         <v>1983.4</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="4">
+        <v>18.617168422639111</v>
+      </c>
+      <c r="E200" s="4">
+        <v>18.338137254562639</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -3278,8 +4500,14 @@
       <c r="C201" s="1">
         <v>2026.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="4">
+        <v>18.187994134180826</v>
+      </c>
+      <c r="E201" s="4">
+        <v>20.145807876343952</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -3289,8 +4517,14 @@
       <c r="C202" s="1">
         <v>2028.9</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="4">
+        <v>25.16112920307387</v>
+      </c>
+      <c r="E202" s="4">
+        <v>13.46250481084644</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -3300,8 +4534,14 @@
       <c r="C203" s="1">
         <v>2050.3000000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="4">
+        <v>24.248841604360905</v>
+      </c>
+      <c r="E203" s="4">
+        <v>26.170184181877289</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -3311,8 +4551,14 @@
       <c r="C204" s="1">
         <v>2057.6999999999998</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="4">
+        <v>21.209145582303336</v>
+      </c>
+      <c r="E204" s="4">
+        <v>16.013948337250554</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -3322,8 +4568,14 @@
       <c r="C205" s="1">
         <v>2059.1</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="4">
+        <v>22.109685927550231</v>
+      </c>
+      <c r="E205" s="4">
+        <v>14.055836855215944</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -3333,8 +4585,14 @@
       <c r="C206" s="1">
         <v>2077.3000000000002</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="4">
+        <v>15.952990887373858</v>
+      </c>
+      <c r="E206" s="4">
+        <v>18.707392794935231</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -3344,8 +4602,14 @@
       <c r="C207" s="1">
         <v>2087.1</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="4">
+        <v>23.372688059743837</v>
+      </c>
+      <c r="E207" s="4">
+        <v>16.237428949635614</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -3355,8 +4619,14 @@
       <c r="C208" s="1">
         <v>2219.1999999999998</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="4">
+        <v>25.97349784185667</v>
+      </c>
+      <c r="E208" s="4">
+        <v>11.815585157151418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -3366,8 +4636,14 @@
       <c r="C209" s="1">
         <v>2295.3000000000002</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="4">
+        <v>29.575657549820676</v>
+      </c>
+      <c r="E209" s="4">
+        <v>21.627674090959317</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -3377,8 +4653,14 @@
       <c r="C210" s="1">
         <v>2420.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="4">
+        <v>50.157819902116671</v>
+      </c>
+      <c r="E210" s="4">
+        <v>20.807684651437057</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -3388,8 +4670,14 @@
       <c r="C211" s="1">
         <v>2503.1</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="4">
+        <v>31.633414597058618</v>
+      </c>
+      <c r="E211" s="4">
+        <v>19.024531882138945</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -3399,8 +4687,14 @@
       <c r="C212" s="1">
         <v>2513</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="4">
+        <v>22.364586399614609</v>
+      </c>
+      <c r="E212" s="4">
+        <v>15.851273854677856</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -3410,8 +4704,14 @@
       <c r="C213" s="1">
         <v>2614.6999999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="4">
+        <v>32.497908472481868</v>
+      </c>
+      <c r="E213" s="4">
+        <v>15.447964767163512</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -3421,8 +4721,14 @@
       <c r="C214" s="1">
         <v>2623.1</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="4">
+        <v>33.607189625144201</v>
+      </c>
+      <c r="E214" s="4">
+        <v>15.236337662272945</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -3432,8 +4738,14 @@
       <c r="C215" s="1">
         <v>2625.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="4">
+        <v>20.141393488594758</v>
+      </c>
+      <c r="E215" s="4">
+        <v>14.147265168112199</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -3443,8 +4755,14 @@
       <c r="C216" s="1">
         <v>2720.9</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="4">
+        <v>24.467679453578739</v>
+      </c>
+      <c r="E216" s="4">
+        <v>13.917311869137166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -3454,8 +4772,14 @@
       <c r="C217" s="1">
         <v>3253.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" s="4">
+        <v>31.436275887020656</v>
+      </c>
+      <c r="E217" s="4">
+        <v>16.019888328510888</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -3465,8 +4789,14 @@
       <c r="C218" s="1">
         <v>3326.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" s="4">
+        <v>39.923695396017138</v>
+      </c>
+      <c r="E218" s="4">
+        <v>17.743819348416309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>

--- a/Vasey20/N2.xlsx
+++ b/Vasey20/N2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A2312-F537-4893-8D8B-6261C0B62484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FEDC5-8A69-445A-915F-2B47C5624D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2085" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>206 Error</t>
+  </si>
+  <si>
+    <t>235/207 U-Pb Age</t>
+  </si>
+  <si>
+    <t>235 Error</t>
   </si>
 </sst>
 </file>
@@ -757,7 +763,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1077,11 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E218"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1090,7 +1096,7 @@
     <col min="2" max="3" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1106,8 +1112,14 @@
       <c r="E1" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1135,14 @@
       <c r="E2" s="4">
         <v>36.206984720546643</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="4">
+        <v>373.99843676843039</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6.1555808502643288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1140,8 +1158,14 @@
       <c r="E3" s="4">
         <v>24.082080096235956</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="4">
+        <v>383.18240310661719</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4.8039924981318052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1157,8 +1181,14 @@
       <c r="E4" s="4">
         <v>26.896352446974021</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="4">
+        <v>381.07192966311732</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.6352091975953158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1174,8 +1204,14 @@
       <c r="E5" s="4">
         <v>50.216921980576672</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="4">
+        <v>423.0041744149554</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.3908034102636293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1191,8 +1227,14 @@
       <c r="E6" s="4">
         <v>65.224548132365157</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="4">
+        <v>420.71199116789245</v>
+      </c>
+      <c r="G6" s="4">
+        <v>11.394624467119201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,8 +1250,14 @@
       <c r="E7" s="4">
         <v>21.858079691081258</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="4">
+        <v>379.80834890665199</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.9436920246611464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1273,14 @@
       <c r="E8" s="4">
         <v>25.967744548106396</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="4">
+        <v>377.78274318958472</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.9315719141625891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,8 +1296,14 @@
       <c r="E9" s="4">
         <v>19.387552964221015</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="4">
+        <v>375.24024698487051</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.283226194183527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,8 +1319,14 @@
       <c r="E10" s="4">
         <v>27.660152635111587</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="4">
+        <v>373.49201368394557</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.5946376624971208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1276,8 +1342,14 @@
       <c r="E11" s="4">
         <v>22.416770769402405</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="4">
+        <v>377.53327711096648</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.8770794892518268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1293,8 +1365,14 @@
       <c r="E12" s="4">
         <v>28.847077861644067</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="4">
+        <v>383.13254175593232</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.3792569148013172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1388,14 @@
       <c r="E13" s="4">
         <v>20.871242565440411</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="4">
+        <v>375.91061149631355</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.6760007847322811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1327,8 +1411,14 @@
       <c r="E14" s="4">
         <v>22.682753825856736</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="4">
+        <v>377.0634677037923</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4.8287925153773017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,8 +1434,14 @@
       <c r="E15" s="4">
         <v>17.803384381201312</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="4">
+        <v>371.97031647398831</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.4882511143444788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1361,8 +1457,14 @@
       <c r="E16" s="4">
         <v>22.462602571686091</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="4">
+        <v>382.86575955682383</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.1878527722711283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1378,8 +1480,14 @@
       <c r="E17" s="4">
         <v>25.917114030801571</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="4">
+        <v>375.02649217850143</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.5402433408151524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,8 +1503,14 @@
       <c r="E18" s="4">
         <v>27.457812992128424</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="4">
+        <v>393.8822345713869</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.7265535315576699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1412,8 +1526,14 @@
       <c r="E19" s="4">
         <v>19.446097119766932</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="4">
+        <v>375.0679239912227</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4.558232368444834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1429,8 +1549,14 @@
       <c r="E20" s="4">
         <v>22.629298612222527</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="4">
+        <v>377.4160039114106</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4.6640260396567044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1446,8 +1572,14 @@
       <c r="E21" s="4">
         <v>22.156512263363339</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="4">
+        <v>379.62484207301566</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5.7311586257694103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1463,8 +1595,14 @@
       <c r="E22" s="4">
         <v>17.706144229242739</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="4">
+        <v>377.78178048464429</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4.6137874873346334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1480,8 +1618,14 @@
       <c r="E23" s="4">
         <v>19.063782609855537</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="4">
+        <v>382.73915214647496</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4.7108060847274658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1497,8 +1641,14 @@
       <c r="E24" s="4">
         <v>23.53409046251204</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="4">
+        <v>384.56303158631778</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5.0094188843956715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,8 +1664,14 @@
       <c r="E25" s="4">
         <v>29.034506675425632</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="4">
+        <v>380.87473204605942</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.43381873369907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1687,14 @@
       <c r="E26" s="4">
         <v>24.314822495490347</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="4">
+        <v>383.33843896182873</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.1031786646335036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1548,8 +1710,14 @@
       <c r="E27" s="4">
         <v>26.917074835829169</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="4">
+        <v>377.65305719275625</v>
+      </c>
+      <c r="G27" s="4">
+        <v>6.0217720713385177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1565,8 +1733,14 @@
       <c r="E28" s="4">
         <v>26.745591280220196</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="4">
+        <v>381.71820946969615</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5.2847034866798879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1582,8 +1756,14 @@
       <c r="E29" s="4">
         <v>25.974763264147725</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="4">
+        <v>385.30673696050201</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5.4793644186147503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1599,8 +1779,14 @@
       <c r="E30" s="4">
         <v>15.141261351006051</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="4">
+        <v>384.25964272664834</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3.7291401854764104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1616,8 +1802,14 @@
       <c r="E31" s="4">
         <v>29.852774186334614</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="4">
+        <v>384.73537323428769</v>
+      </c>
+      <c r="G31" s="4">
+        <v>6.0438800704571634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1633,8 +1825,14 @@
       <c r="E32" s="4">
         <v>30.322798647760948</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="4">
+        <v>393.78707795031301</v>
+      </c>
+      <c r="G32" s="4">
+        <v>6.2062296597027569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1650,8 +1848,14 @@
       <c r="E33" s="4">
         <v>22.452986378892348</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="4">
+        <v>389.58504118535137</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4.1075803790791667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1667,8 +1871,14 @@
       <c r="E34" s="4">
         <v>23.852788822312846</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="4">
+        <v>385.72437599776879</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.164554363004811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1684,8 +1894,14 @@
       <c r="E35" s="4">
         <v>30.960226069823761</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="4">
+        <v>380.24667518869632</v>
+      </c>
+      <c r="G35" s="4">
+        <v>6.4436325721827927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1701,8 +1917,14 @@
       <c r="E36" s="4">
         <v>35.889557867176961</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="4">
+        <v>394.36623367163924</v>
+      </c>
+      <c r="G36" s="4">
+        <v>6.8433901720264032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1718,8 +1940,14 @@
       <c r="E37" s="4">
         <v>41.161356390085956</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="4">
+        <v>379.28236493391188</v>
+      </c>
+      <c r="G37" s="4">
+        <v>7.6813113439612266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1735,8 +1963,14 @@
       <c r="E38" s="4">
         <v>17.03555080800146</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="4">
+        <v>376.43026663613699</v>
+      </c>
+      <c r="G38" s="4">
+        <v>4.6902238280721065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1752,8 +1986,14 @@
       <c r="E39" s="4">
         <v>24.685798021025875</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="4">
+        <v>385.58546373378408</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5.1423856125668692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1769,8 +2009,14 @@
       <c r="E40" s="4">
         <v>25.136402484693946</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" s="4">
+        <v>390.04993924282184</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5.7993740005420591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1786,8 +2032,14 @@
       <c r="E41" s="4">
         <v>33.064763132973951</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" s="4">
+        <v>384.6148325285339</v>
+      </c>
+      <c r="G41" s="4">
+        <v>6.3798211286658955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1803,8 +2055,14 @@
       <c r="E42" s="4">
         <v>35.620522274963832</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" s="4">
+        <v>382.11938458515755</v>
+      </c>
+      <c r="G42" s="4">
+        <v>6.0273738261116137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1820,8 +2078,14 @@
       <c r="E43" s="4">
         <v>22.021016441164619</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" s="4">
+        <v>381.04933802803072</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5.3852558630923397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1837,8 +2101,14 @@
       <c r="E44" s="4">
         <v>26.671020151138293</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" s="4">
+        <v>379.22845081115565</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5.7691967444446277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1854,8 +2124,14 @@
       <c r="E45" s="4">
         <v>26.983169229639458</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" s="4">
+        <v>377.28332249881709</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5.6978677941801834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1871,8 +2147,14 @@
       <c r="E46" s="4">
         <v>23.469909747411236</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" s="4">
+        <v>387.95768914120265</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5.2258065417993009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1888,8 +2170,14 @@
       <c r="E47" s="4">
         <v>24.322753385555842</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" s="4">
+        <v>390.7451753331149</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5.8719897032900406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1905,8 +2193,14 @@
       <c r="E48" s="4">
         <v>25.758565273879697</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" s="4">
+        <v>379.56755520532124</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5.2102142490720951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1922,8 +2216,14 @@
       <c r="E49" s="4">
         <v>19.290963386653914</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" s="4">
+        <v>388.75867819169787</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4.7668578962739332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1939,8 +2239,14 @@
       <c r="E50" s="4">
         <v>43.673827927884759</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" s="4">
+        <v>394.37229234300554</v>
+      </c>
+      <c r="G50" s="4">
+        <v>7.2448892800906606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1956,8 +2262,14 @@
       <c r="E51" s="4">
         <v>20.504469645845546</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" s="4">
+        <v>383.74174484963572</v>
+      </c>
+      <c r="G51" s="4">
+        <v>4.6653934010772673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1973,8 +2285,14 @@
       <c r="E52" s="4">
         <v>26.435332436183529</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" s="4">
+        <v>387.12501807478674</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5.3753158225383686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1990,8 +2308,14 @@
       <c r="E53" s="4">
         <v>23.270000274700692</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" s="4">
+        <v>391.0722450717052</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5.995157827628276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2007,8 +2331,14 @@
       <c r="E54" s="4">
         <v>26.838879837256144</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" s="4">
+        <v>384.30294933542024</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5.2167861023123407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2024,8 +2354,14 @@
       <c r="E55" s="4">
         <v>21.803732066967001</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" s="4">
+        <v>383.50304544319027</v>
+      </c>
+      <c r="G55" s="4">
+        <v>4.2818048540731866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2041,8 +2377,14 @@
       <c r="E56" s="4">
         <v>23.906640775889088</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" s="4">
+        <v>384.70484637385806</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5.3201682021125976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2058,8 +2400,14 @@
       <c r="E57" s="4">
         <v>33.208520380064357</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" s="4">
+        <v>394.33721038478205</v>
+      </c>
+      <c r="G57" s="4">
+        <v>6.4162836827263163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2075,8 +2423,14 @@
       <c r="E58" s="4">
         <v>23.037997457040746</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" s="4">
+        <v>397.6559988802739</v>
+      </c>
+      <c r="G58" s="4">
+        <v>4.8393716722932538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2092,8 +2446,14 @@
       <c r="E59" s="4">
         <v>36.37673476165628</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" s="4">
+        <v>384.55539664592527</v>
+      </c>
+      <c r="G59" s="4">
+        <v>6.7156809998745643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2109,8 +2469,14 @@
       <c r="E60" s="4">
         <v>27.904309915336825</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" s="4">
+        <v>382.0920645718291</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5.304965915015714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2126,8 +2492,14 @@
       <c r="E61" s="4">
         <v>23.959472478843765</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" s="4">
+        <v>391.52977184145567</v>
+      </c>
+      <c r="G61" s="4">
+        <v>4.8072871733037914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2143,8 +2515,14 @@
       <c r="E62" s="4">
         <v>25.888972334840901</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" s="4">
+        <v>386.26958754583154</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5.353314383845543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2160,8 +2538,14 @@
       <c r="E63" s="4">
         <v>25.392976653097037</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" s="4">
+        <v>385.50335435153477</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5.9286604519731156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2177,8 +2561,14 @@
       <c r="E64" s="4">
         <v>22.405776106353613</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" s="4">
+        <v>388.6115248135655</v>
+      </c>
+      <c r="G64" s="4">
+        <v>4.7104100312988919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2194,8 +2584,14 @@
       <c r="E65" s="4">
         <v>22.016929433060341</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="4">
+        <v>379.80216616560347</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5.6996490053477658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2211,8 +2607,14 @@
       <c r="E66" s="4">
         <v>26.148254501419871</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="4">
+        <v>385.74303527416015</v>
+      </c>
+      <c r="G66" s="4">
+        <v>4.8207864742286404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2228,8 +2630,14 @@
       <c r="E67" s="4">
         <v>27.961345892636103</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" s="4">
+        <v>385.67636246339032</v>
+      </c>
+      <c r="G67" s="4">
+        <v>6.1298818029293329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2245,8 +2653,14 @@
       <c r="E68" s="4">
         <v>24.305722980383507</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" s="4">
+        <v>387.31717952169834</v>
+      </c>
+      <c r="G68" s="4">
+        <v>5.1074178853557441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2262,8 +2676,14 @@
       <c r="E69" s="4">
         <v>18.721840172974311</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" s="4">
+        <v>386.6420023572482</v>
+      </c>
+      <c r="G69" s="4">
+        <v>4.8467638698999167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2279,8 +2699,14 @@
       <c r="E70" s="4">
         <v>26.80868726320648</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" s="4">
+        <v>385.95877884953416</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5.6430381099391411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2296,8 +2722,14 @@
       <c r="E71" s="4">
         <v>22.939983256870306</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" s="4">
+        <v>390.18748764101412</v>
+      </c>
+      <c r="G71" s="4">
+        <v>4.4940964966346257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2313,8 +2745,14 @@
       <c r="E72" s="4">
         <v>23.183617326421086</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" s="4">
+        <v>392.32881276625022</v>
+      </c>
+      <c r="G72" s="4">
+        <v>5.6176354158581603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2330,8 +2768,14 @@
       <c r="E73" s="4">
         <v>19.829667619121608</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" s="4">
+        <v>387.31586577030231</v>
+      </c>
+      <c r="G73" s="4">
+        <v>5.2544376482879898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2347,8 +2791,14 @@
       <c r="E74" s="4">
         <v>26.857828629327997</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" s="4">
+        <v>395.14599445456986</v>
+      </c>
+      <c r="G74" s="4">
+        <v>5.6477319117836089</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2364,8 +2814,14 @@
       <c r="E75" s="4">
         <v>28.048437959269222</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" s="4">
+        <v>384.96564159607505</v>
+      </c>
+      <c r="G75" s="4">
+        <v>5.2715426434867254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2381,8 +2837,14 @@
       <c r="E76" s="4">
         <v>25.039306788444861</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" s="4">
+        <v>388.92220293005829</v>
+      </c>
+      <c r="G76" s="4">
+        <v>6.0543160263503921</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2398,8 +2860,14 @@
       <c r="E77" s="4">
         <v>22.79481399978215</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" s="4">
+        <v>388.11932553180162</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5.3051627624604407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2415,8 +2883,14 @@
       <c r="E78" s="4">
         <v>27.099762484884963</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" s="4">
+        <v>397.95907709560856</v>
+      </c>
+      <c r="G78" s="4">
+        <v>5.7016930671565831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2432,8 +2906,14 @@
       <c r="E79" s="4">
         <v>19.633557709335008</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" s="4">
+        <v>389.46300922662004</v>
+      </c>
+      <c r="G79" s="4">
+        <v>5.3680158019326143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2449,8 +2929,14 @@
       <c r="E80" s="4">
         <v>23.642768856027345</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" s="4">
+        <v>386.65883358287454</v>
+      </c>
+      <c r="G80" s="4">
+        <v>6.1136861840982135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2466,8 +2952,14 @@
       <c r="E81" s="4">
         <v>19.571288785270355</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" s="4">
+        <v>388.28415476884078</v>
+      </c>
+      <c r="G81" s="4">
+        <v>4.833262472906199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2483,8 +2975,14 @@
       <c r="E82" s="4">
         <v>23.647876228432921</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" s="4">
+        <v>388.95069913534655</v>
+      </c>
+      <c r="G82" s="4">
+        <v>5.0413674790119956</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2500,8 +2998,14 @@
       <c r="E83" s="4">
         <v>23.175207646684555</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" s="4">
+        <v>384.53210911828904</v>
+      </c>
+      <c r="G83" s="4">
+        <v>4.6212459081062036</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2517,8 +3021,14 @@
       <c r="E84" s="4">
         <v>25.385185116652849</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" s="4">
+        <v>388.22668657000594</v>
+      </c>
+      <c r="G84" s="4">
+        <v>5.9068955066331341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2534,8 +3044,14 @@
       <c r="E85" s="4">
         <v>20.068367587911212</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" s="4">
+        <v>383.09317241400066</v>
+      </c>
+      <c r="G85" s="4">
+        <v>5.2009827730260554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2551,8 +3067,14 @@
       <c r="E86" s="4">
         <v>22.607545055218537</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="4">
+        <v>387.90564032619397</v>
+      </c>
+      <c r="G86" s="4">
+        <v>6.1637594023460736</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2568,8 +3090,14 @@
       <c r="E87" s="4">
         <v>26.296135202296256</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" s="4">
+        <v>392.23705241063436</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5.4319524379441759</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2585,8 +3113,14 @@
       <c r="E88" s="4">
         <v>31.3897560659411</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" s="4">
+        <v>377.36082650839654</v>
+      </c>
+      <c r="G88" s="4">
+        <v>5.5305967341121232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2602,8 +3136,14 @@
       <c r="E89" s="4">
         <v>25.180730089678804</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" s="4">
+        <v>391.56087841093802</v>
+      </c>
+      <c r="G89" s="4">
+        <v>5.9950791498585545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2619,8 +3159,14 @@
       <c r="E90" s="4">
         <v>26.058519886303429</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" s="4">
+        <v>385.92490828429555</v>
+      </c>
+      <c r="G90" s="4">
+        <v>5.5884530545778262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2636,8 +3182,14 @@
       <c r="E91" s="4">
         <v>22.36804932744289</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" s="4">
+        <v>387.57226597635076</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5.6161499839711553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2653,8 +3205,14 @@
       <c r="E92" s="4">
         <v>21.674114496043074</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" s="4">
+        <v>383.47320708171435</v>
+      </c>
+      <c r="G92" s="4">
+        <v>4.1316430193948293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2670,8 +3228,14 @@
       <c r="E93" s="4">
         <v>27.215331921842477</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" s="4">
+        <v>384.05038987834837</v>
+      </c>
+      <c r="G93" s="4">
+        <v>5.4031304044010824</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2687,8 +3251,14 @@
       <c r="E94" s="4">
         <v>20.708930780668538</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" s="4">
+        <v>380.0439586147545</v>
+      </c>
+      <c r="G94" s="4">
+        <v>5.3127227367162959</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2704,8 +3274,14 @@
       <c r="E95" s="4">
         <v>38.116526345144592</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" s="4">
+        <v>380.69668117275523</v>
+      </c>
+      <c r="G95" s="4">
+        <v>6.957648793077027</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2721,8 +3297,14 @@
       <c r="E96" s="4">
         <v>25.788565615833789</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" s="4">
+        <v>397.47979318274423</v>
+      </c>
+      <c r="G96" s="4">
+        <v>5.0283854786569577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2738,8 +3320,14 @@
       <c r="E97" s="4">
         <v>30.295998467890144</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" s="4">
+        <v>384.88596298583309</v>
+      </c>
+      <c r="G97" s="4">
+        <v>6.3849367033978126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2755,8 +3343,14 @@
       <c r="E98" s="4">
         <v>27.006489757194601</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98" s="4">
+        <v>389.16114634140058</v>
+      </c>
+      <c r="G98" s="4">
+        <v>5.8835232550254659</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2772,8 +3366,14 @@
       <c r="E99" s="4">
         <v>25.417244124423149</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" s="4">
+        <v>393.59786031197069</v>
+      </c>
+      <c r="G99" s="4">
+        <v>5.4878691536222277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2789,8 +3389,14 @@
       <c r="E100" s="4">
         <v>39.127842215147183</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" s="4">
+        <v>395.34554572108732</v>
+      </c>
+      <c r="G100" s="4">
+        <v>7.4797961361783791</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2806,8 +3412,14 @@
       <c r="E101" s="4">
         <v>28.002192542401247</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" s="4">
+        <v>391.81896603908694</v>
+      </c>
+      <c r="G101" s="4">
+        <v>6.457635048680288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2823,8 +3435,14 @@
       <c r="E102" s="4">
         <v>27.955521239655468</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" s="4">
+        <v>390.40745433674789</v>
+      </c>
+      <c r="G102" s="4">
+        <v>6.8589309551159943</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2840,8 +3458,14 @@
       <c r="E103" s="4">
         <v>21.003224308728988</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" s="4">
+        <v>388.11485819226232</v>
+      </c>
+      <c r="G103" s="4">
+        <v>6.1714903187711343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2857,8 +3481,14 @@
       <c r="E104" s="4">
         <v>24.954743962889552</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" s="4">
+        <v>384.85686387575566</v>
+      </c>
+      <c r="G104" s="4">
+        <v>5.0746452765760068</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2874,8 +3504,14 @@
       <c r="E105" s="4">
         <v>24.057166299207182</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" s="4">
+        <v>385.97881241959777</v>
+      </c>
+      <c r="G105" s="4">
+        <v>5.4968533439629539</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2891,8 +3527,14 @@
       <c r="E106" s="4">
         <v>22.081740842042365</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" s="4">
+        <v>390.61231521605174</v>
+      </c>
+      <c r="G106" s="4">
+        <v>4.2107936264110606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2908,8 +3550,14 @@
       <c r="E107" s="4">
         <v>23.249227313851407</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" s="4">
+        <v>388.439664379975</v>
+      </c>
+      <c r="G107" s="4">
+        <v>5.073995915800964</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -2925,8 +3573,14 @@
       <c r="E108" s="4">
         <v>21.478517881365121</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" s="4">
+        <v>390.91966292507823</v>
+      </c>
+      <c r="G108" s="4">
+        <v>5.3886926681437615</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -2942,8 +3596,14 @@
       <c r="E109" s="4">
         <v>21.800624253191131</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" s="4">
+        <v>391.18866245091863</v>
+      </c>
+      <c r="G109" s="4">
+        <v>4.6919048441289704</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2959,8 +3619,14 @@
       <c r="E110" s="4">
         <v>26.340859204802229</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" s="4">
+        <v>393.5800675561095</v>
+      </c>
+      <c r="G110" s="4">
+        <v>5.507359266792065</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -2976,8 +3642,14 @@
       <c r="E111" s="4">
         <v>39.217861318592696</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" s="4">
+        <v>391.68959584475357</v>
+      </c>
+      <c r="G111" s="4">
+        <v>7.0762526949947642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2993,8 +3665,14 @@
       <c r="E112" s="4">
         <v>24.624101901225771</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" s="4">
+        <v>394.09976952796518</v>
+      </c>
+      <c r="G112" s="4">
+        <v>5.4836085694144003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3010,8 +3688,14 @@
       <c r="E113" s="4">
         <v>26.008149673920173</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" s="4">
+        <v>390.9361087199909</v>
+      </c>
+      <c r="G113" s="4">
+        <v>5.8617546151646707</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3027,8 +3711,14 @@
       <c r="E114" s="4">
         <v>22.475012304714767</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" s="4">
+        <v>388.4608716375364</v>
+      </c>
+      <c r="G114" s="4">
+        <v>4.9474648138015027</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3044,8 +3734,14 @@
       <c r="E115" s="4">
         <v>25.910752545142572</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115" s="4">
+        <v>392.91674020923182</v>
+      </c>
+      <c r="G115" s="4">
+        <v>5.3096524966850609</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3061,8 +3757,14 @@
       <c r="E116" s="4">
         <v>20.885985774943151</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116" s="4">
+        <v>389.26099084627322</v>
+      </c>
+      <c r="G116" s="4">
+        <v>4.6000581359715227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3078,8 +3780,14 @@
       <c r="E117" s="4">
         <v>26.527318251385026</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117" s="4">
+        <v>393.81040833440704</v>
+      </c>
+      <c r="G117" s="4">
+        <v>5.3120052293031392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3095,8 +3803,14 @@
       <c r="E118" s="4">
         <v>23.033259202537607</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118" s="4">
+        <v>391.56944337702953</v>
+      </c>
+      <c r="G118" s="4">
+        <v>5.6338646017340466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3112,8 +3826,14 @@
       <c r="E119" s="4">
         <v>45.66102375270151</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119" s="4">
+        <v>405.6790955368503</v>
+      </c>
+      <c r="G119" s="4">
+        <v>7.9902147376188282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3129,8 +3849,14 @@
       <c r="E120" s="4">
         <v>19.935882309227821</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120" s="4">
+        <v>388.03342186531074</v>
+      </c>
+      <c r="G120" s="4">
+        <v>5.1435617834269465</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3146,8 +3872,14 @@
       <c r="E121" s="4">
         <v>30.085258731606132</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121" s="4">
+        <v>396.07410041083693</v>
+      </c>
+      <c r="G121" s="4">
+        <v>5.2337638176699954</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3163,8 +3895,14 @@
       <c r="E122" s="4">
         <v>28.205308394691173</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122" s="4">
+        <v>397.69704198071491</v>
+      </c>
+      <c r="G122" s="4">
+        <v>5.4166458052783923</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3180,8 +3918,14 @@
       <c r="E123" s="4">
         <v>22.340266631355263</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123" s="4">
+        <v>391.92021692660228</v>
+      </c>
+      <c r="G123" s="4">
+        <v>4.5582945803265602</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3197,8 +3941,14 @@
       <c r="E124" s="4">
         <v>33.267214795642701</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124" s="4">
+        <v>434.89759747301861</v>
+      </c>
+      <c r="G124" s="4">
+        <v>8.3133800930219763</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3214,8 +3964,14 @@
       <c r="E125" s="4">
         <v>37.160337547095452</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125" s="4">
+        <v>399.97916170371587</v>
+      </c>
+      <c r="G125" s="4">
+        <v>7.011964601729062</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3231,8 +3987,14 @@
       <c r="E126" s="4">
         <v>25.518761375985974</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" s="4">
+        <v>411.80429966716883</v>
+      </c>
+      <c r="G126" s="4">
+        <v>5.2821736377429431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3248,8 +4010,14 @@
       <c r="E127" s="4">
         <v>34.200788494116068</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127" s="4">
+        <v>417.47942665251765</v>
+      </c>
+      <c r="G127" s="4">
+        <v>7.1638112813977273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3265,8 +4033,14 @@
       <c r="E128" s="4">
         <v>31.186767377794524</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128" s="4">
+        <v>398.65606050448309</v>
+      </c>
+      <c r="G128" s="4">
+        <v>6.1085142451980801</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3282,8 +4056,14 @@
       <c r="E129" s="4">
         <v>19.949484780463564</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" s="4">
+        <v>388.08628656429079</v>
+      </c>
+      <c r="G129" s="4">
+        <v>4.4067010396111925</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3299,8 +4079,14 @@
       <c r="E130" s="4">
         <v>70.599674075267217</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130" s="4">
+        <v>452.8860035942069</v>
+      </c>
+      <c r="G130" s="4">
+        <v>12.887189336049744</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3316,8 +4102,14 @@
       <c r="E131" s="4">
         <v>27.891397709250214</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" s="4">
+        <v>397.84807903911491</v>
+      </c>
+      <c r="G131" s="4">
+        <v>5.6895899660467535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3333,8 +4125,14 @@
       <c r="E132" s="4">
         <v>22.927820733246477</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132" s="4">
+        <v>400.69393683848318</v>
+      </c>
+      <c r="G132" s="4">
+        <v>5.1858748836920654</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3350,8 +4148,14 @@
       <c r="E133" s="4">
         <v>105.14332458145452</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" s="4">
+        <v>583.47568245824084</v>
+      </c>
+      <c r="G133" s="4">
+        <v>25.615288210420886</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3367,8 +4171,14 @@
       <c r="E134" s="4">
         <v>27.523688123499824</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F134" s="4">
+        <v>403.33730983544416</v>
+      </c>
+      <c r="G134" s="4">
+        <v>5.7650003113816126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -3384,8 +4194,14 @@
       <c r="E135" s="4">
         <v>34.767042658746789</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F135" s="4">
+        <v>402.40708387832075</v>
+      </c>
+      <c r="G135" s="4">
+        <v>6.3115044859362683</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3401,8 +4217,14 @@
       <c r="E136" s="4">
         <v>21.463389690830496</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F136" s="4">
+        <v>402.45994845423223</v>
+      </c>
+      <c r="G136" s="4">
+        <v>5.025325789714401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -3418,8 +4240,14 @@
       <c r="E137" s="4">
         <v>26.6423367700705</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137" s="4">
+        <v>402.94591431081165</v>
+      </c>
+      <c r="G137" s="4">
+        <v>5.2631826472155012</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3435,8 +4263,14 @@
       <c r="E138" s="4">
         <v>25.633852680217245</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F138" s="4">
+        <v>403.35651206793068</v>
+      </c>
+      <c r="G138" s="4">
+        <v>5.1732659111823125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3452,8 +4286,14 @@
       <c r="E139" s="4">
         <v>26.432652818720385</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F139" s="4">
+        <v>408.0660210092517</v>
+      </c>
+      <c r="G139" s="4">
+        <v>5.3831839328034334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3469,8 +4309,14 @@
       <c r="E140" s="4">
         <v>24.238639385035611</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F140" s="4">
+        <v>400.39005083602456</v>
+      </c>
+      <c r="G140" s="4">
+        <v>5.3135399329485153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3486,8 +4332,14 @@
       <c r="E141" s="4">
         <v>27.031989619468931</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F141" s="4">
+        <v>402.62133643935772</v>
+      </c>
+      <c r="G141" s="4">
+        <v>5.5583722554521842</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -3503,8 +4355,14 @@
       <c r="E142" s="4">
         <v>26.684681887577625</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F142" s="4">
+        <v>400.94156290689455</v>
+      </c>
+      <c r="G142" s="4">
+        <v>6.7067043699429973</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -3520,8 +4378,14 @@
       <c r="E143" s="4">
         <v>25.828153363297986</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F143" s="4">
+        <v>413.36651643973738</v>
+      </c>
+      <c r="G143" s="4">
+        <v>5.5642082201206335</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -3537,8 +4401,14 @@
       <c r="E144" s="4">
         <v>28.574064705999746</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F144" s="4">
+        <v>433.41324751313124</v>
+      </c>
+      <c r="G144" s="4">
+        <v>6.7427714813359501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -3554,8 +4424,14 @@
       <c r="E145" s="4">
         <v>19.648968112947216</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F145" s="4">
+        <v>450.47436419514935</v>
+      </c>
+      <c r="G145" s="4">
+        <v>6.2409711749141081</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -3571,8 +4447,14 @@
       <c r="E146" s="4">
         <v>23.949211140946545</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F146" s="4">
+        <v>512.12591744330894</v>
+      </c>
+      <c r="G146" s="4">
+        <v>5.9539611054564148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -3588,8 +4470,14 @@
       <c r="E147" s="4">
         <v>19.481448251969596</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F147" s="4">
+        <v>527.55308503325296</v>
+      </c>
+      <c r="G147" s="4">
+        <v>6.2920055801864123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -3605,8 +4493,14 @@
       <c r="E148" s="4">
         <v>21.645338575500944</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148" s="4">
+        <v>541.8022726584453</v>
+      </c>
+      <c r="G148" s="4">
+        <v>6.4860285592167202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -3622,8 +4516,14 @@
       <c r="E149" s="4">
         <v>22.943955863401357</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F149" s="4">
+        <v>537.74205916994742</v>
+      </c>
+      <c r="G149" s="4">
+        <v>6.5082424742950025</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -3639,8 +4539,14 @@
       <c r="E150" s="4">
         <v>16.494876391042311</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F150" s="4">
+        <v>536.57684438570664</v>
+      </c>
+      <c r="G150" s="4">
+        <v>6.3803878704383692</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -3656,8 +4562,14 @@
       <c r="E151" s="4">
         <v>32.153356216254679</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F151" s="4">
+        <v>554.01997185645098</v>
+      </c>
+      <c r="G151" s="4">
+        <v>9.0230129149432514</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -3673,8 +4585,14 @@
       <c r="E152" s="4">
         <v>15.990466879752773</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F152" s="4">
+        <v>545.6804694321446</v>
+      </c>
+      <c r="G152" s="4">
+        <v>5.3360829842258113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -3690,8 +4608,14 @@
       <c r="E153" s="4">
         <v>23.266590012272047</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F153" s="4">
+        <v>545.7321779851477</v>
+      </c>
+      <c r="G153" s="4">
+        <v>7.0016406390415682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -3707,8 +4631,14 @@
       <c r="E154" s="4">
         <v>18.68627438840349</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F154" s="4">
+        <v>553.74882093752035</v>
+      </c>
+      <c r="G154" s="4">
+        <v>5.4808098097921061</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -3724,8 +4654,14 @@
       <c r="E155" s="4">
         <v>19.714590306445928</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F155" s="4">
+        <v>555.35431019200803</v>
+      </c>
+      <c r="G155" s="4">
+        <v>7.8794786384060558</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3741,8 +4677,14 @@
       <c r="E156" s="4">
         <v>45.792903838720008</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156" s="4">
+        <v>557.87088658300479</v>
+      </c>
+      <c r="G156" s="4">
+        <v>10.824035127626246</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3758,8 +4700,14 @@
       <c r="E157" s="4">
         <v>29.549329593167954</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F157" s="4">
+        <v>552.40191468284206</v>
+      </c>
+      <c r="G157" s="4">
+        <v>7.9760499727986485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3775,8 +4723,14 @@
       <c r="E158" s="4">
         <v>28.94961465138897</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F158" s="4">
+        <v>554.45697148650947</v>
+      </c>
+      <c r="G158" s="4">
+        <v>7.3217337589955491</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3792,8 +4746,14 @@
       <c r="E159" s="4">
         <v>27.467904803027693</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F159" s="4">
+        <v>563.29902865984786</v>
+      </c>
+      <c r="G159" s="4">
+        <v>8.4976412058458095</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3809,8 +4769,14 @@
       <c r="E160" s="4">
         <v>28.857273035787159</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F160" s="4">
+        <v>573.54909088419925</v>
+      </c>
+      <c r="G160" s="4">
+        <v>9.4308180308528904</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3826,8 +4792,14 @@
       <c r="E161" s="4">
         <v>21.039402472002848</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F161" s="4">
+        <v>565.77041590935448</v>
+      </c>
+      <c r="G161" s="4">
+        <v>6.8620274760673965</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -3843,8 +4815,14 @@
       <c r="E162" s="4">
         <v>25.465457290926622</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162" s="4">
+        <v>568.69141501613967</v>
+      </c>
+      <c r="G162" s="4">
+        <v>7.7015872140357828</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -3860,8 +4838,14 @@
       <c r="E163" s="4">
         <v>20.791917380075006</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F163" s="4">
+        <v>564.68177305583811</v>
+      </c>
+      <c r="G163" s="4">
+        <v>6.3077695738477928</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -3877,8 +4861,14 @@
       <c r="E164" s="4">
         <v>34.513405467985478</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F164" s="4">
+        <v>571.79605277889709</v>
+      </c>
+      <c r="G164" s="4">
+        <v>8.2846091145535183</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -3894,8 +4884,14 @@
       <c r="E165" s="4">
         <v>27.276253605674924</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F165" s="4">
+        <v>585.20694043204617</v>
+      </c>
+      <c r="G165" s="4">
+        <v>7.4391540625925927</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -3911,8 +4907,14 @@
       <c r="E166" s="4">
         <v>21.825229242716489</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166" s="4">
+        <v>561.66333804017324</v>
+      </c>
+      <c r="G166" s="4">
+        <v>6.5577527112965299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -3928,8 +4930,14 @@
       <c r="E167" s="4">
         <v>25.63165774717271</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F167" s="4">
+        <v>568.93395708536048</v>
+      </c>
+      <c r="G167" s="4">
+        <v>7.9243592559270724</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -3945,8 +4953,14 @@
       <c r="E168" s="4">
         <v>26.055595594448391</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168" s="4">
+        <v>571.17747540902849</v>
+      </c>
+      <c r="G168" s="4">
+        <v>7.3678040465570689</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -3962,8 +4976,14 @@
       <c r="E169" s="4">
         <v>19.688571437825544</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F169" s="4">
+        <v>568.38047059341648</v>
+      </c>
+      <c r="G169" s="4">
+        <v>7.2818593919247974</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -3979,8 +4999,14 @@
       <c r="E170" s="4">
         <v>19.654251229389729</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F170" s="4">
+        <v>568.4704415799572</v>
+      </c>
+      <c r="G170" s="4">
+        <v>7.2471927551709996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -3996,8 +5022,14 @@
       <c r="E171" s="4">
         <v>17.360648958377737</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F171" s="4">
+        <v>584.87086565379661</v>
+      </c>
+      <c r="G171" s="4">
+        <v>6.5115703849797342</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -4013,8 +5045,14 @@
       <c r="E172" s="4">
         <v>30.650779815829424</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F172" s="4">
+        <v>614.74158844395038</v>
+      </c>
+      <c r="G172" s="4">
+        <v>8.9376229977461321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -4030,8 +5068,14 @@
       <c r="E173" s="4">
         <v>24.899739229658394</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F173" s="4">
+        <v>594.3980259987411</v>
+      </c>
+      <c r="G173" s="4">
+        <v>7.5950878359550984</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -4047,8 +5091,14 @@
       <c r="E174" s="4">
         <v>21.594069547030472</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F174" s="4">
+        <v>596.4652164346694</v>
+      </c>
+      <c r="G174" s="4">
+        <v>7.1720112523226476</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -4064,8 +5114,14 @@
       <c r="E175" s="4">
         <v>23.078465762568953</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F175" s="4">
+        <v>597.58899780488878</v>
+      </c>
+      <c r="G175" s="4">
+        <v>8.0559709452288075</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -4081,8 +5137,14 @@
       <c r="E176" s="4">
         <v>18.45878491531181</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F176" s="4">
+        <v>606.81155435655273</v>
+      </c>
+      <c r="G176" s="4">
+        <v>7.038492447708677</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -4098,8 +5160,14 @@
       <c r="E177" s="4">
         <v>51.322654640281712</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F177" s="4">
+        <v>624.31456785707451</v>
+      </c>
+      <c r="G177" s="4">
+        <v>13.296590114725234</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -4115,8 +5183,14 @@
       <c r="E178" s="4">
         <v>25.500648834051503</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F178" s="4">
+        <v>618.58732024647384</v>
+      </c>
+      <c r="G178" s="4">
+        <v>7.9217076271776818</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -4132,8 +5206,14 @@
       <c r="E179" s="4">
         <v>22.297768313124095</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F179" s="4">
+        <v>625.88674522969143</v>
+      </c>
+      <c r="G179" s="4">
+        <v>8.914960730748021</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -4149,8 +5229,14 @@
       <c r="E180" s="4">
         <v>19.961207070719865</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F180" s="4">
+        <v>634.13199633639886</v>
+      </c>
+      <c r="G180" s="4">
+        <v>9.5639425526073865</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -4166,8 +5252,14 @@
       <c r="E181" s="4">
         <v>25.68004604025424</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F181" s="4">
+        <v>634.79292086979899</v>
+      </c>
+      <c r="G181" s="4">
+        <v>8.7817020877607206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -4183,8 +5275,14 @@
       <c r="E182" s="4">
         <v>24.458405879745044</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F182" s="4">
+        <v>663.50776221463639</v>
+      </c>
+      <c r="G182" s="4">
+        <v>8.0939912409155568</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -4200,8 +5298,14 @@
       <c r="E183" s="4">
         <v>33.820933042715865</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F183" s="4">
+        <v>817.21462242463724</v>
+      </c>
+      <c r="G183" s="4">
+        <v>18.840768869126464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4217,8 +5321,14 @@
       <c r="E184" s="4">
         <v>26.943405855069784</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F184" s="4">
+        <v>1000.2097528708033</v>
+      </c>
+      <c r="G184" s="4">
+        <v>13.068195723266172</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4234,8 +5344,14 @@
       <c r="E185" s="4">
         <v>37.39512118850439</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F185" s="4">
+        <v>1412.7561721273919</v>
+      </c>
+      <c r="G185" s="4">
+        <v>20.055953344490263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -4251,8 +5367,14 @@
       <c r="E186" s="4">
         <v>15.639453349662858</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F186" s="4">
+        <v>1607.3708010265218</v>
+      </c>
+      <c r="G186" s="4">
+        <v>11.1347830367298</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -4268,8 +5390,14 @@
       <c r="E187" s="4">
         <v>15.728793772738527</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F187" s="4">
+        <v>1651.7688750781422</v>
+      </c>
+      <c r="G187" s="4">
+        <v>11.869368689325597</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -4285,8 +5413,14 @@
       <c r="E188" s="4">
         <v>16.909785493946515</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F188" s="4">
+        <v>1767.2472958491385</v>
+      </c>
+      <c r="G188" s="4">
+        <v>11.183645046762877</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -4302,8 +5436,14 @@
       <c r="E189" s="4">
         <v>13.978908961531033</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F189" s="4">
+        <v>1734.7840435116195</v>
+      </c>
+      <c r="G189" s="4">
+        <v>10.704541711255274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -4319,8 +5459,14 @@
       <c r="E190" s="4">
         <v>12.328481176751552</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F190" s="4">
+        <v>1808.9889012388462</v>
+      </c>
+      <c r="G190" s="4">
+        <v>10.837219118448388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -4336,8 +5482,14 @@
       <c r="E191" s="4">
         <v>19.983203760527658</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F191" s="4">
+        <v>1882.0901401812073</v>
+      </c>
+      <c r="G191" s="4">
+        <v>14.837812743144241</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -4353,8 +5505,14 @@
       <c r="E192" s="4">
         <v>16.31173552528378</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F192" s="4">
+        <v>1853.3735752990476</v>
+      </c>
+      <c r="G192" s="4">
+        <v>14.423732186688653</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -4370,8 +5528,14 @@
       <c r="E193" s="4">
         <v>20.030409259587032</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F193" s="4">
+        <v>1877.1292556878013</v>
+      </c>
+      <c r="G193" s="4">
+        <v>13.637225706878894</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -4387,8 +5551,14 @@
       <c r="E194" s="4">
         <v>16.343507316687123</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F194" s="4">
+        <v>1887.3240448429538</v>
+      </c>
+      <c r="G194" s="4">
+        <v>15.249779736654546</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -4404,8 +5574,14 @@
       <c r="E195" s="4">
         <v>24.891166065365837</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F195" s="4">
+        <v>1894.7890262176054</v>
+      </c>
+      <c r="G195" s="4">
+        <v>18.144627713422437</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -4421,8 +5597,14 @@
       <c r="E196" s="4">
         <v>23.481355923597107</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F196" s="4">
+        <v>1895.2928069821642</v>
+      </c>
+      <c r="G196" s="4">
+        <v>16.037088193635782</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -4438,8 +5620,14 @@
       <c r="E197" s="4">
         <v>14.193151967823496</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F197" s="4">
+        <v>1913.0883063556025</v>
+      </c>
+      <c r="G197" s="4">
+        <v>12.049356535431116</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -4455,8 +5643,14 @@
       <c r="E198" s="4">
         <v>15.153514918694782</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F198" s="4">
+        <v>1802.2746507082541</v>
+      </c>
+      <c r="G198" s="4">
+        <v>10.267327179149333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -4472,8 +5666,14 @@
       <c r="E199" s="4">
         <v>18.581179505070054</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F199" s="4">
+        <v>1919.2832699820397</v>
+      </c>
+      <c r="G199" s="4">
+        <v>13.22600020649395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -4489,8 +5689,14 @@
       <c r="E200" s="4">
         <v>18.338137254562639</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F200" s="4">
+        <v>1885.2344845608895</v>
+      </c>
+      <c r="G200" s="4">
+        <v>13.466974823375836</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -4506,8 +5712,14 @@
       <c r="E201" s="4">
         <v>20.145807876343952</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F201" s="4">
+        <v>2045.1611144172182</v>
+      </c>
+      <c r="G201" s="4">
+        <v>13.501737122040026</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -4523,8 +5735,14 @@
       <c r="E202" s="4">
         <v>13.46250481084644</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F202" s="4">
+        <v>2060.9238724882161</v>
+      </c>
+      <c r="G202" s="4">
+        <v>14.113134721035067</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -4540,8 +5758,14 @@
       <c r="E203" s="4">
         <v>26.170184181877289</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F203" s="4">
+        <v>2093.2434172535573</v>
+      </c>
+      <c r="G203" s="4">
+        <v>17.664427824246332</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -4557,8 +5781,14 @@
       <c r="E204" s="4">
         <v>16.013948337250554</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F204" s="4">
+        <v>2035.5305075721462</v>
+      </c>
+      <c r="G204" s="4">
+        <v>13.404568517339271</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -4574,8 +5804,14 @@
       <c r="E205" s="4">
         <v>14.055836855215944</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F205" s="4">
+        <v>2029.333841539609</v>
+      </c>
+      <c r="G205" s="4">
+        <v>13.276799106955764</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -4591,8 +5827,14 @@
       <c r="E206" s="4">
         <v>18.707392794935231</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F206" s="4">
+        <v>2064.5710556953477</v>
+      </c>
+      <c r="G206" s="4">
+        <v>12.332548071129395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -4608,8 +5850,14 @@
       <c r="E207" s="4">
         <v>16.237428949635614</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F207" s="4">
+        <v>2050.9340303449867</v>
+      </c>
+      <c r="G207" s="4">
+        <v>14.40843549039937</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -4625,8 +5873,14 @@
       <c r="E208" s="4">
         <v>11.815585157151418</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F208" s="4">
+        <v>2118.7454352444474</v>
+      </c>
+      <c r="G208" s="4">
+        <v>14.653420753313185</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -4642,8 +5896,14 @@
       <c r="E209" s="4">
         <v>21.627674090959317</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F209" s="4">
+        <v>2074.7667823208321</v>
+      </c>
+      <c r="G209" s="4">
+        <v>19.632207103322799</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -4659,8 +5919,14 @@
       <c r="E210" s="4">
         <v>20.807684651437057</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F210" s="4">
+        <v>2381.9086337084254</v>
+      </c>
+      <c r="G210" s="4">
+        <v>26.056126684294895</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -4676,8 +5942,14 @@
       <c r="E211" s="4">
         <v>19.024531882138945</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F211" s="4">
+        <v>2479.2274867490923</v>
+      </c>
+      <c r="G211" s="4">
+        <v>17.801205110596584</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -4693,8 +5965,14 @@
       <c r="E212" s="4">
         <v>15.851273854677856</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F212" s="4">
+        <v>2471.1385409321251</v>
+      </c>
+      <c r="G212" s="4">
+        <v>13.479727047651977</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -4710,8 +5988,14 @@
       <c r="E213" s="4">
         <v>15.447964767163512</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F213" s="4">
+        <v>2606.5630247250133</v>
+      </c>
+      <c r="G213" s="4">
+        <v>16.701690217127634</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -4727,8 +6011,14 @@
       <c r="E214" s="4">
         <v>15.236337662272945</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F214" s="4">
+        <v>2631.1309074125215</v>
+      </c>
+      <c r="G214" s="4">
+        <v>16.918239050847205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -4744,8 +6034,14 @@
       <c r="E215" s="4">
         <v>14.147265168112199</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F215" s="4">
+        <v>2646.8002005517192</v>
+      </c>
+      <c r="G215" s="4">
+        <v>11.785036850742927</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -4761,8 +6057,14 @@
       <c r="E216" s="4">
         <v>13.917311869137166</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F216" s="4">
+        <v>2660.3918530032702</v>
+      </c>
+      <c r="G216" s="4">
+        <v>13.434553323885439</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -4778,8 +6080,14 @@
       <c r="E217" s="4">
         <v>16.019888328510888</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F217" s="4">
+        <v>3261.2763799188306</v>
+      </c>
+      <c r="G217" s="4">
+        <v>15.514459413620216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -4795,8 +6103,14 @@
       <c r="E218" s="4">
         <v>17.743819348416309</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F218" s="4">
+        <v>3311.051449266733</v>
+      </c>
+      <c r="G218" s="4">
+        <v>18.759337826118099</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>

--- a/Vasey20/N2.xlsx
+++ b/Vasey20/N2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FEDC5-8A69-445A-915F-2B47C5624D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C81E46-7A2E-4D84-AF06-3815D6443341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -703,14 +703,30 @@
   </si>
   <si>
     <t>235 Error</t>
+  </si>
+  <si>
+    <t>75_ratio</t>
+  </si>
+  <si>
+    <t>75_1s</t>
+  </si>
+  <si>
+    <t>68_ratio</t>
+  </si>
+  <si>
+    <t>68_1s</t>
+  </si>
+  <si>
+    <t>rho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -761,12 +777,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,11 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:L218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1096,7 +1118,7 @@
     <col min="2" max="3" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1140,23 @@
       <c r="G1" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1178,23 @@
       <c r="G2" s="4">
         <v>6.1555808502643288</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="5">
+        <v>0.44532232713611181</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.9675421758285905</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5.8496560437125499E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.1147559702160197</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.56657284601615343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1164,8 +1216,23 @@
       <c r="G3" s="4">
         <v>4.8039924981318052</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="5">
+        <v>0.45845431958222527</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.5051019949462399</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5.872760359651974E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.0391526810957776</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.69042010746447413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1187,8 +1254,23 @@
       <c r="G4" s="4">
         <v>5.6352091975953158</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="5">
+        <v>0.4554260708106056</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.773568372465647</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.917525736181739E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.297327162136205</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.73147851657539265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1210,8 +1292,23 @@
       <c r="G5" s="4">
         <v>9.3908034102636293</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="5">
+        <v>0.51678909220553004</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.7143904228314377</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5.9327637295623882E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.3334281782623119</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.49124406240403146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1233,8 +1330,23 @@
       <c r="G6" s="4">
         <v>11.394624467119201</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="5">
+        <v>0.51336886850691654</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3.3080125064876804</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.9553474508781575E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.2609785503935367</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.38118917262873214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1256,8 +1368,23 @@
       <c r="G7" s="4">
         <v>4.9436920246611464</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="5">
+        <v>0.45361601050502065</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.5601968203753189</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.9728494163567104E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.2154841035687594</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.77905818528483106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1279,8 +1406,23 @@
       <c r="G8" s="4">
         <v>5.9315719141625891</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="5">
+        <v>0.45071905661834893</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.8802359173803387</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5.9802706088112514E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4808635623742064</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.7875945506016272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1302,8 +1444,23 @@
       <c r="G9" s="4">
         <v>4.283226194183527</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="5">
+        <v>0.44709103304548409</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.365332461117517</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5.9816392930749238E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.0586740109736283</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.77539649947757761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,8 +1482,23 @@
       <c r="G10" s="4">
         <v>5.5946376624971208</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="5">
+        <v>0.44460165123945206</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.7902541726828836</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5.9832801585864959E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.3025025612554262</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.72755175277904227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,8 +1520,23 @@
       <c r="G11" s="4">
         <v>4.8770794892518268</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="5">
+        <v>0.45036267806833208</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.5468236589924402</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5.9896102631545059E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.180750973794553</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.7633390961731622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1371,8 +1558,23 @@
       <c r="G12" s="4">
         <v>6.3792569148013172</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="5">
+        <v>0.45838270255397406</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.9988387128848679</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5.9991484652897123E-2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.5240052436982534</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.76244533081846277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1394,8 +1596,23 @@
       <c r="G13" s="4">
         <v>4.6760007847322811</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="5">
+        <v>0.44804673027499187</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.4883355644456069</v>
+      </c>
+      <c r="J13" s="5">
+        <v>6.006902184708976E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.1632994271506569</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.7816109854124037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1417,8 +1634,23 @@
       <c r="G14" s="4">
         <v>4.8287925153773017</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="5">
+        <v>0.4496917623834758</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.5330845226830447</v>
+      </c>
+      <c r="J14" s="5">
+        <v>6.010667376261096E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.1541353967879036</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.75281915622503071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1440,8 +1672,23 @@
       <c r="G15" s="4">
         <v>4.4882511143444788</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="5">
+        <v>0.44243832979743475</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.4410827455040516</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6.0113773534160503E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.2072733233887354</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.83775433933633281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,8 +1710,23 @@
       <c r="G16" s="4">
         <v>5.1878527722711283</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="5">
+        <v>0.45799957676171971</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.6264708123329137</v>
+      </c>
+      <c r="J16" s="5">
+        <v>6.0204857005776165E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.2781146554755276</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.78582083722872065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1486,8 +1748,23 @@
       <c r="G17" s="4">
         <v>4.5402433408151524</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="5">
+        <v>0.44678642868350493</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.4479407088266587</v>
+      </c>
+      <c r="J17" s="5">
+        <v>6.0206089654240277E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.88075130696454818</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.60827857217873693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1509,8 +1786,23 @@
       <c r="G18" s="4">
         <v>5.7265535315576699</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="5">
+        <v>0.47390437727881374</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.7540315388491563</v>
+      </c>
+      <c r="J18" s="5">
+        <v>6.0223754432817349E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.2344857614987068</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.70379906755192645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1532,8 +1824,23 @@
       <c r="G19" s="4">
         <v>4.558232368444834</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="5">
+        <v>0.44684546473610187</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.45354481241706</v>
+      </c>
+      <c r="J19" s="5">
+        <v>6.024287590789932E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.1702086369098177</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.80507228047817081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,8 +1862,23 @@
       <c r="G20" s="4">
         <v>4.6640260396567044</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="5">
+        <v>0.45019517591307928</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.4796316770796727</v>
+      </c>
+      <c r="J20" s="5">
+        <v>6.0262324925767857E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.084881248344181</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.73321034224233084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1578,8 +1900,23 @@
       <c r="G21" s="4">
         <v>5.7311586257694103</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="5">
+        <v>0.45335332701062769</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.8094321731493004</v>
+      </c>
+      <c r="J21" s="5">
+        <v>6.026851414978833E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.5160038677749132</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.83783404002169493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1601,8 +1938,23 @@
       <c r="G22" s="4">
         <v>4.6137874873346334</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" s="5">
+        <v>0.45071768116330635</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.4625239815636493</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6.0285600851016856E-2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1.2323978254795551</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.84265136231266713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1624,8 +1976,23 @@
       <c r="G23" s="4">
         <v>4.7108060847274658</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" s="5">
+        <v>0.45781779113690685</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.4773138893962257</v>
+      </c>
+      <c r="J23" s="5">
+        <v>6.0302756550310609E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.2061607630353015</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.8164553056007996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1647,8 +2014,23 @@
       <c r="G24" s="4">
         <v>5.0094188843956715</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" s="5">
+        <v>0.46043874617964858</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.5648236392608308</v>
+      </c>
+      <c r="J24" s="5">
+        <v>6.0337677518996928E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.1555907343836804</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.73847985510337899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1670,8 +2052,23 @@
       <c r="G25" s="4">
         <v>5.43381873369907</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="5">
+        <v>0.45514343985269301</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.7109156876038654</v>
+      </c>
+      <c r="J25" s="5">
+        <v>6.0356999560900411E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.1172938643507448</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.65303852927756667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1693,8 +2090,23 @@
       <c r="G26" s="4">
         <v>5.1031786646335036</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="5">
+        <v>0.45867846026771031</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.5983004805753147</v>
+      </c>
+      <c r="J26" s="5">
+        <v>6.03806873684214E-2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.170600652531766</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.73240336642481862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1716,8 +2128,23 @@
       <c r="G27" s="4">
         <v>6.0217720713385177</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="5">
+        <v>0.45053378079335221</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.9093686977346895</v>
+      </c>
+      <c r="J27" s="5">
+        <v>6.0465102199875435E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.487998369651754</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.77931432070565676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1739,8 +2166,23 @@
       <c r="G28" s="4">
         <v>5.2847034866798879</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="5">
+        <v>0.45635272788315273</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.6609353010052339</v>
+      </c>
+      <c r="J28" s="5">
+        <v>6.0507449945389646E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.1549475625428463</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.69535975413602624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1762,8 +2204,23 @@
       <c r="G29" s="4">
         <v>5.4793644186147503</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="5">
+        <v>0.46150881919462328</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.7089033244249963</v>
+      </c>
+      <c r="J29" s="5">
+        <v>6.0551210290862384E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.2511823782132017</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.73215515490567229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1785,8 +2242,23 @@
       <c r="G30" s="4">
         <v>3.7291401854764104</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="5">
+        <v>0.46000244319392231</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.1656556966295966</v>
+      </c>
+      <c r="J30" s="5">
+        <v>6.0585646677416068E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.94851387767375228</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.81371701816952202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1808,8 +2280,23 @@
       <c r="G31" s="4">
         <v>6.0438800704571634</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" s="5">
+        <v>0.460686648467173</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.8872621588479157</v>
+      </c>
+      <c r="J31" s="5">
+        <v>6.0587458857656117E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.3324388475540656</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.7060168304161073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1831,8 +2318,23 @@
       <c r="G32" s="4">
         <v>6.2062296597027569</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" s="5">
+        <v>0.47376625680473589</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.9013278368482127</v>
+      </c>
+      <c r="J32" s="5">
+        <v>6.0594281323356806E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.3160491449424165</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.69217371114915194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1854,8 +2356,23 @@
       <c r="G33" s="4">
         <v>4.1075803790791667</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" s="5">
+        <v>0.46767986061764377</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.2695109676319332</v>
+      </c>
+      <c r="J33" s="5">
+        <v>6.0631785422940204E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.76858531372313421</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.60541841175016042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1877,8 +2394,23 @@
       <c r="G34" s="4">
         <v>5.164554363004811</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" s="5">
+        <v>0.46211007867039888</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1.6092882025572519</v>
+      </c>
+      <c r="J34" s="5">
+        <v>6.069633779192371E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.2034229155737297</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.74779825867201499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1900,8 +2432,23 @@
       <c r="G35" s="4">
         <v>6.4436325721827927</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="5">
+        <v>0.45424365112316301</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2.0316240159598427</v>
+      </c>
+      <c r="J35" s="5">
+        <v>6.0699535664194067E-2</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.4930713327028775</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.7349151816348628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1923,8 +2470,23 @@
       <c r="G36" s="4">
         <v>6.8433901720264032</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="5">
+        <v>0.47460710561035513</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2.0940010812839978</v>
+      </c>
+      <c r="J36" s="5">
+        <v>6.0735573414218133E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1.3221358004501584</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.6313921288137313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1946,8 +2508,23 @@
       <c r="G37" s="4">
         <v>7.6813113439612266</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="5">
+        <v>0.45286321014653724</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2.4269166383483851</v>
+      </c>
+      <c r="J37" s="5">
+        <v>6.0774361361221989E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.5956149034421305</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.65746588829190711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1969,8 +2546,23 @@
       <c r="G38" s="4">
         <v>4.6902238280721065</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" s="5">
+        <v>0.44878800472386876</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.4911597421878213</v>
+      </c>
+      <c r="J38" s="5">
+        <v>6.0778901943716337E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.286403256544113</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.86268641792643186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1992,8 +2584,23 @@
       <c r="G39" s="4">
         <v>5.1423856125668692</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" s="5">
+        <v>0.46191006437231169</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.6028550401044381</v>
+      </c>
+      <c r="J39" s="5">
+        <v>6.0803964657402551E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.1612201718574477</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.72446986333947283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2015,8 +2622,23 @@
       <c r="G40" s="4">
         <v>5.7993740005420591</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" s="5">
+        <v>0.46835199882199041</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.7906235203932805</v>
+      </c>
+      <c r="J40" s="5">
+        <v>6.0821997035579362E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.3883158287010569</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.77532536174669275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2038,8 +2660,23 @@
       <c r="G41" s="4">
         <v>6.3798211286658955</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" s="5">
+        <v>0.46051325405392418</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1.9926739582717166</v>
+      </c>
+      <c r="J41" s="5">
+        <v>6.0876331656633954E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1.3371973028134851</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.6710567462693503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2061,8 +2698,23 @@
       <c r="G42" s="4">
         <v>6.0273738261116137</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" s="5">
+        <v>0.45692824261661197</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.892706509490206</v>
+      </c>
+      <c r="J42" s="5">
+        <v>6.0878011951507376E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1.0308901008594458</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.54466452970413914</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2084,8 +2736,23 @@
       <c r="G43" s="4">
         <v>5.3852558630923397</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" s="5">
+        <v>0.45539368885504705</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.6949849217704209</v>
+      </c>
+      <c r="J43" s="5">
+        <v>6.091160632239434E-2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1.383364807799359</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0.81615168962944351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2107,8 +2774,23 @@
       <c r="G44" s="4">
         <v>5.7691967444446277</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="5">
+        <v>0.45278606904624724</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1.8230113642725345</v>
+      </c>
+      <c r="J44" s="5">
+        <v>6.0915508973974519E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1.3857964154625526</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.76016882978431077</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2130,8 +2812,23 @@
       <c r="G45" s="4">
         <v>5.6978677941801834</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="5">
+        <v>0.45000568942035352</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.8081297863865868</v>
+      </c>
+      <c r="J45" s="5">
+        <v>6.0941414496966835E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1.3572751927763631</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.75065142059784162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2153,8 +2850,23 @@
       <c r="G46" s="4">
         <v>5.2258065417993009</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="5">
+        <v>0.46532949750224128</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1.620668874966082</v>
+      </c>
+      <c r="J46" s="5">
+        <v>6.0958846543232019E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1.232509500697277</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.76049433646528897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2176,8 +2888,23 @@
       <c r="G47" s="4">
         <v>5.8719897032900406</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="5">
+        <v>0.46935772850149221</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.8103981677482901</v>
+      </c>
+      <c r="J47" s="5">
+        <v>6.1045786172503919E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.4433459361298215</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.79725331247159004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2199,8 +2926,23 @@
       <c r="G48" s="4">
         <v>5.2102142490720951</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="5">
+        <v>0.45327133262351682</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.6451682285504308</v>
+      </c>
+      <c r="J48" s="5">
+        <v>6.1069172226356203E-2</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1.1839038753550706</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.71962481089135599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2222,8 +2964,23 @@
       <c r="G49" s="4">
         <v>4.7668578962739332</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="5">
+        <v>0.4664858846853312</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1.4758373062667305</v>
+      </c>
+      <c r="J49" s="5">
+        <v>6.1079059565036106E-2</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.1956566410863019</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.81015477519729329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2245,8 +3002,23 @@
       <c r="G50" s="4">
         <v>7.2448892800906606</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="5">
+        <v>0.47461590444393154</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2.2168234067570234</v>
+      </c>
+      <c r="J50" s="5">
+        <v>6.1101922950727756E-2</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1.0138523805052133</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.45734467500429887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2268,8 +3040,23 @@
       <c r="G51" s="4">
         <v>4.6653934010772673</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" s="5">
+        <v>0.4592579563100197</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1.4599254681631864</v>
+      </c>
+      <c r="J51" s="5">
+        <v>6.1132545604386794E-2</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.1386482460410532</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.77993587403722053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2291,8 +3078,23 @@
       <c r="G52" s="4">
         <v>5.3753158225383686</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" s="5">
+        <v>0.46412833768618794</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1.6699792661198283</v>
+      </c>
+      <c r="J52" s="5">
+        <v>6.1134791236698807E-2</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1.1788414856222476</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.70590186928563969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2314,8 +3116,23 @@
       <c r="G53" s="4">
         <v>5.995157827628276</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="5">
+        <v>0.46983110636243408</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1.8471039227102168</v>
+      </c>
+      <c r="J53" s="5">
+        <v>6.1149223559314077E-2</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1.5229115718364898</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.82448613373196322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2337,8 +3154,23 @@
       <c r="G54" s="4">
         <v>5.2167861023123407</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="5">
+        <v>0.46006471437599289</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1.630506288850843</v>
+      </c>
+      <c r="J54" s="5">
+        <v>6.115538110627184E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1.1075422858037891</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.67926281142059808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2360,8 +3192,23 @@
       <c r="G55" s="4">
         <v>4.2818048540731866</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="5">
+        <v>0.45891494972982577</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1.3405782041492935</v>
+      </c>
+      <c r="J55" s="5">
+        <v>6.1190663477150478E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.92435224510644287</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0.68951758446126599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,8 +3230,23 @@
       <c r="G56" s="4">
         <v>5.3201682021125976</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" s="5">
+        <v>0.4606427344910386</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1.6613887117242896</v>
+      </c>
+      <c r="J56" s="5">
+        <v>6.1236742399020806E-2</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1.2744508561063284</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.76709974439613615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2406,8 +3268,23 @@
       <c r="G57" s="4">
         <v>6.4162836827263163</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" s="5">
+        <v>0.47456495665658155</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1.9634331040023369</v>
+      </c>
+      <c r="J57" s="5">
+        <v>6.1241895198418869E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1.2696602057480304</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0.64665315215471664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +3306,23 @@
       <c r="G58" s="4">
         <v>4.8393716722932538</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" s="5">
+        <v>0.47939247035486565</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1.4707808763315027</v>
+      </c>
+      <c r="J58" s="5">
+        <v>6.1274819628091753E-2</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1.0373518582275278</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.70530687128251512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2452,8 +3344,23 @@
       <c r="G59" s="4">
         <v>6.7156809998745643</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" s="5">
+        <v>0.46042776478615677</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2.0978401431530518</v>
+      </c>
+      <c r="J59" s="5">
+        <v>6.1278179669156295E-2</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1.3311397284529407</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.6345286759801626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2475,8 +3382,23 @@
       <c r="G60" s="4">
         <v>5.304965915015714</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="5">
+        <v>0.45688904286494397</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1.6659596163054629</v>
+      </c>
+      <c r="J60" s="5">
+        <v>6.1313021154856512E-2</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1.113221758901541</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.66821653298553074</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2498,8 +3420,23 @@
       <c r="G61" s="4">
         <v>4.8072871733037914</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="5">
+        <v>0.470493554498152</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1.4797091446342101</v>
+      </c>
+      <c r="J61" s="5">
+        <v>6.1364120500535316E-2</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1.0155914224782079</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.68634530384636228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2521,8 +3458,23 @@
       <c r="G62" s="4">
         <v>5.353314383845543</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="5">
+        <v>0.46289537181977852</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1.6661697354837874</v>
+      </c>
+      <c r="J62" s="5">
+        <v>6.1395476768983659E-2</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1.2006217673593467</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0.7205879099770921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2544,8 +3496,23 @@
       <c r="G63" s="4">
         <v>5.9286604519731156</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="5">
+        <v>0.46179185117323107</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1.8482512282644459</v>
+      </c>
+      <c r="J63" s="5">
+        <v>6.1402820750206269E-2</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1.4610091326495172</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0.79048189461853668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2567,8 +3534,23 @@
       <c r="G64" s="4">
         <v>4.7104100312988919</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="5">
+        <v>0.46627337107798128</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1.458814330454697</v>
+      </c>
+      <c r="J64" s="5">
+        <v>6.1409864684951153E-2</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1.0596902126155172</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0.72640512948979818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2590,8 +3572,23 @@
       <c r="G65" s="4">
         <v>5.6996490053477658</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="5">
+        <v>0.45360715935866158</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1.7987913586095412</v>
+      </c>
+      <c r="J65" s="5">
+        <v>6.145329216867753E-2</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1.5121081279022066</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0.84062452305255697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2613,8 +3610,23 @@
       <c r="G66" s="4">
         <v>4.8207864742286404</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="5">
+        <v>0.46213694751232087</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1.5021111925571295</v>
+      </c>
+      <c r="J66" s="5">
+        <v>6.1476600590544911E-2</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.94762569220660753</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0.63086254659577512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2636,8 +3648,23 @@
       <c r="G67" s="4">
         <v>6.1298818029293329</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="5">
+        <v>0.4620409427787176</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1.9102754180847787</v>
+      </c>
+      <c r="J67" s="5">
+        <v>6.1493665181723264E-2</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1.4479356670979262</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.75797220306044177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2659,8 +3686,23 @@
       <c r="G68" s="4">
         <v>5.1074178853557441</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="5">
+        <v>0.46440545048937143</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1.5861046851151224</v>
+      </c>
+      <c r="J68" s="5">
+        <v>6.1523110446661984E-2</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1.1568397750409218</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0.72935903026915039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2682,8 +3724,23 @@
       <c r="G69" s="4">
         <v>4.8467638698999167</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" s="5">
+        <v>0.46343202035265818</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1.5073189818728621</v>
+      </c>
+      <c r="J69" s="5">
+        <v>6.1543779315550752E-2</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1.2548999044277809</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0.83253771731087234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2705,8 +3762,23 @@
       <c r="G70" s="4">
         <v>5.6430381099391411</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" s="5">
+        <v>0.4624476481551747</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1.7575041313343425</v>
+      </c>
+      <c r="J70" s="5">
+        <v>6.1559962592609041E-2</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1.2891066927817343</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0.73348714793803149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2728,8 +3800,23 @@
       <c r="G71" s="4">
         <v>4.4940964966346257</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" s="5">
+        <v>0.46855092192321868</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1.3872088799548481</v>
+      </c>
+      <c r="J71" s="5">
+        <v>6.1563337653152972E-2</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.93207217535894715</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0.671904706513474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2751,8 +3838,23 @@
       <c r="G72" s="4">
         <v>5.6176354158581603</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" s="5">
+        <v>0.47165119344604317</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1.7262478773144945</v>
+      </c>
+      <c r="J72" s="5">
+        <v>6.1597013802615001E-2</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1.3779089790870092</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0.79821038287421819</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2774,8 +3876,23 @@
       <c r="G73" s="4">
         <v>5.2544376482879898</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" s="5">
+        <v>0.46440355577244236</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1.6317653015736016</v>
+      </c>
+      <c r="J73" s="5">
+        <v>6.163385222851539E-2</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1.3711540354613994</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0.84028875607240805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2797,8 +3914,23 @@
       <c r="G74" s="4">
         <v>5.6477319117836089</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" s="5">
+        <v>0.47573996124465334</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1.7253606488504047</v>
+      </c>
+      <c r="J74" s="5">
+        <v>6.1647875474639929E-2</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1.2305645532803855</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0.71322164099447938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2820,8 +3952,23 @@
       <c r="G75" s="4">
         <v>5.2715426434867254</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" s="5">
+        <v>0.46101794025120946</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1.6452868785171331</v>
+      </c>
+      <c r="J75" s="5">
+        <v>6.1725978437924135E-2</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1.0726393265802299</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0.65194668515619592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2843,8 +3990,23 @@
       <c r="G76" s="4">
         <v>6.0543160263503921</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" s="5">
+        <v>0.46672207735270632</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1.8737839453710803</v>
+      </c>
+      <c r="J76" s="5">
+        <v>6.1742159413935363E-2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.5033496455797477</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0.80230682373683559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2866,8 +4028,23 @@
       <c r="G77" s="4">
         <v>5.3051627624604407</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" s="5">
+        <v>0.4655627783543218</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1.6447164086122228</v>
+      </c>
+      <c r="J77" s="5">
+        <v>6.1749084409365128E-2</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1.2924171771695423</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0.78579940614811317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2889,8 +4066,23 @@
       <c r="G78" s="4">
         <v>5.7016930671565831</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" s="5">
+        <v>0.47983411506360074</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1.7317742281879147</v>
+      </c>
+      <c r="J78" s="5">
+        <v>6.1778228887807415E-2</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1.2262332996132748</v>
+      </c>
+      <c r="L78" s="6">
+        <v>0.70807919395842644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2912,8 +4104,23 @@
       <c r="G79" s="4">
         <v>5.3680158019326143</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" s="5">
+        <v>0.46750348079191806</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1.6594880145041799</v>
+      </c>
+      <c r="J79" s="5">
+        <v>6.1780644966387646E-2</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1.4085896532289461</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0.84880977802650948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2935,8 +4142,23 @@
       <c r="G80" s="4">
         <v>6.1136861840982135</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" s="5">
+        <v>0.46345627874321627</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1.9012488560913423</v>
+      </c>
+      <c r="J80" s="5">
+        <v>6.1844645330639665E-2</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1.5833537686781132</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0.83279669760497876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2958,8 +4180,23 @@
       <c r="G81" s="4">
         <v>4.833262472906199</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" s="5">
+        <v>0.46580070551093472</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1.4978970793005006</v>
+      </c>
+      <c r="J81" s="5">
+        <v>6.1852447274276481E-2</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1.2172361217608405</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0.81263001215629249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2981,8 +4218,23 @@
       <c r="G82" s="4">
         <v>5.0413674790119956</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" s="5">
+        <v>0.46676324073413211</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1.5601927196844938</v>
+      </c>
+      <c r="J82" s="5">
+        <v>6.1867550891347857E-2</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1.1489437818087604</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0.73641144924782287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -3004,8 +4256,23 @@
       <c r="G83" s="4">
         <v>4.6212459081062036</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" s="5">
+        <v>0.46039427066605604</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1.4436648406802608</v>
+      </c>
+      <c r="J83" s="5">
+        <v>6.1868595233805695E-2</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1.0127684492100162</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0.70152601952458415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -3027,8 +4294,23 @@
       <c r="G84" s="4">
         <v>5.9068955066331341</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" s="5">
+        <v>0.46571774712161634</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1.8308469328098034</v>
+      </c>
+      <c r="J84" s="5">
+        <v>6.1877530276092732E-2</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1.4389435894313729</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0.78594423359194987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -3050,8 +4332,23 @@
       <c r="G85" s="4">
         <v>5.2009827730260554</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" s="5">
+        <v>0.45832615792874076</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1.6297902968145095</v>
+      </c>
+      <c r="J85" s="5">
+        <v>6.1901415266681623E-2</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1.3659078462474887</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0.83808809569992559</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -3073,8 +4370,23 @@
       <c r="G86" s="4">
         <v>6.1637594023460736</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" s="5">
+        <v>0.46525438623368648</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1.9117583104008624</v>
+      </c>
+      <c r="J86" s="5">
+        <v>6.1933471539296021E-2</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1.6247903829692694</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0.84989319734071356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +4408,23 @@
       <c r="G87" s="4">
         <v>5.4319524379441759</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" s="5">
+        <v>0.47151820606276623</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1.6695102062685596</v>
+      </c>
+      <c r="J87" s="5">
+        <v>6.1944927489246633E-2</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1.1832481757663993</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0.70873970780389506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -3119,8 +4446,23 @@
       <c r="G88" s="4">
         <v>5.5305967341121232</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" s="5">
+        <v>0.45011637232333529</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1.7547523517908898</v>
+      </c>
+      <c r="J88" s="5">
+        <v>6.1974654319326306E-2</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1.0848028094441899</v>
+      </c>
+      <c r="L88" s="6">
+        <v>0.61820849439925052</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -3142,8 +4484,23 @@
       <c r="G89" s="4">
         <v>5.9950791498585545</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" s="5">
+        <v>0.47053860420668031</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1.8451901776532054</v>
+      </c>
+      <c r="J89" s="5">
+        <v>6.1985250511014771E-2</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1.4612819000946675</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0.79194107891534038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -3165,8 +4522,23 @@
       <c r="G90" s="4">
         <v>5.5884530545778262</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" s="5">
+        <v>0.46239886547935299</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1.7406297129073973</v>
+      </c>
+      <c r="J90" s="5">
+        <v>6.1993185749591027E-2</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1.2995405027273932</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0.74659216322163835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -3188,8 +4560,23 @@
       <c r="G91" s="4">
         <v>5.6161499839711553</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="5">
+        <v>0.4647733874164639</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1.7431451272503993</v>
+      </c>
+      <c r="J91" s="5">
+        <v>6.2028896841749746E-2</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1.4307615842639565</v>
+      </c>
+      <c r="L91" s="6">
+        <v>0.82079315250177143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -3211,8 +4598,23 @@
       <c r="G92" s="4">
         <v>4.1316430193948293</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" s="5">
+        <v>0.45887207823233295</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1.2936478263436344</v>
+      </c>
+      <c r="J92" s="5">
+        <v>6.2060862092758212E-2</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0.86741850281014321</v>
+      </c>
+      <c r="L92" s="6">
+        <v>0.67052136226426839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -3234,8 +4636,23 @@
       <c r="G93" s="4">
         <v>5.4031304044010824</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" s="5">
+        <v>0.45970159299672619</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1.6896607383186337</v>
+      </c>
+      <c r="J93" s="5">
+        <v>6.2078495217379688E-2</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1.1833186977133845</v>
+      </c>
+      <c r="L93" s="6">
+        <v>0.70032916719772642</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -3257,8 +4674,23 @@
       <c r="G94" s="4">
         <v>5.3127227367162959</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" s="5">
+        <v>0.45395334702168966</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1.6758013134570648</v>
+      </c>
+      <c r="J94" s="5">
+        <v>6.2079710743496282E-2</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1.4054083555213672</v>
+      </c>
+      <c r="L94" s="6">
+        <v>0.83864855829603369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -3280,8 +4712,23 @@
       <c r="G95" s="4">
         <v>6.957648793077027</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" s="5">
+        <v>0.45488829786994345</v>
+      </c>
+      <c r="I95" s="4">
+        <v>2.1915464549487207</v>
+      </c>
+      <c r="J95" s="5">
+        <v>6.2148388432302422E-2</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1.4062271119866747</v>
+      </c>
+      <c r="L95" s="6">
+        <v>0.64165973247397068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3303,8 +4750,23 @@
       <c r="G96" s="4">
         <v>5.0283854786569577</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" s="5">
+        <v>0.47913576450956635</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1.5287784466408856</v>
+      </c>
+      <c r="J96" s="5">
+        <v>6.2153425526776621E-2</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0.99560675449813307</v>
+      </c>
+      <c r="L96" s="6">
+        <v>0.6512433221999786</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -3326,8 +4788,23 @@
       <c r="G97" s="4">
         <v>6.3849367033978126</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" s="5">
+        <v>0.4609032965103495</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1.9931161861607309</v>
+      </c>
+      <c r="J97" s="5">
+        <v>6.2194152524155048E-2</v>
+      </c>
+      <c r="K97" s="4">
+        <v>1.4720867104361615</v>
+      </c>
+      <c r="L97" s="6">
+        <v>0.73858549775354032</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -3349,8 +4826,23 @@
       <c r="G98" s="4">
         <v>5.8835232550254659</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" s="5">
+        <v>0.46706727202077536</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1.8200079923912136</v>
+      </c>
+      <c r="J98" s="5">
+        <v>6.2198993606446686E-2</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1.3655593549166791</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0.7503040429633181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -3372,8 +4864,23 @@
       <c r="G99" s="4">
         <v>5.4878691536222277</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" s="5">
+        <v>0.47349164459002291</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1.6819185729762693</v>
+      </c>
+      <c r="J99" s="5">
+        <v>6.2222147088304952E-2</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1.2382015075784498</v>
+      </c>
+      <c r="L99" s="6">
+        <v>0.73618397910153766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -3395,8 +4902,23 @@
       <c r="G100" s="4">
         <v>7.4797961361783791</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" s="5">
+        <v>0.47603001406425488</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2.2840880800937251</v>
+      </c>
+      <c r="J100" s="5">
+        <v>6.2282163725005939E-2</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1.4620902175330683</v>
+      </c>
+      <c r="L100" s="6">
+        <v>0.64011989304417416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3418,8 +4940,23 @@
       <c r="G101" s="4">
         <v>6.457635048680288</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" s="5">
+        <v>0.47091242968768077</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1.9864809083303081</v>
+      </c>
+      <c r="J101" s="5">
+        <v>6.2303972753164752E-2</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1.5432768388384728</v>
+      </c>
+      <c r="L101" s="6">
+        <v>0.77688984191428212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -3441,8 +4978,23 @@
       <c r="G102" s="4">
         <v>6.8589309551159943</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" s="5">
+        <v>0.46886909474009225</v>
+      </c>
+      <c r="I102" s="4">
+        <v>2.1161741288913194</v>
+      </c>
+      <c r="J102" s="5">
+        <v>6.2304927174465674E-2</v>
+      </c>
+      <c r="K102" s="4">
+        <v>1.7100877474043681</v>
+      </c>
+      <c r="L102" s="6">
+        <v>0.80810351287126669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3464,8 +5016,23 @@
       <c r="G103" s="4">
         <v>6.1714903187711343</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" s="5">
+        <v>0.46555633039153227</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1.9133088169011252</v>
+      </c>
+      <c r="J103" s="5">
+        <v>6.2317023020333567E-2</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1.6699289862201132</v>
+      </c>
+      <c r="L103" s="6">
+        <v>0.87279636798245641</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -3487,8 +5054,23 @@
       <c r="G104" s="4">
         <v>5.0746452765760068</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" s="5">
+        <v>0.46086143016585851</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1.5842029697103295</v>
+      </c>
+      <c r="J104" s="5">
+        <v>6.2334485204003309E-2</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1.1342572446130665</v>
+      </c>
+      <c r="L104" s="6">
+        <v>0.71597974899672412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3510,8 +5092,23 @@
       <c r="G105" s="4">
         <v>5.4968533439629539</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" s="5">
+        <v>0.4624765026218291</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1.7119032710650566</v>
+      </c>
+      <c r="J105" s="5">
+        <v>6.2383851848910765E-2</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1.339201792802678</v>
+      </c>
+      <c r="L105" s="6">
+        <v>0.78228823756467081</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3533,8 +5130,23 @@
       <c r="G106" s="4">
         <v>4.2107936264110606</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" s="5">
+        <v>0.46916547960802646</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1.2986024620407122</v>
+      </c>
+      <c r="J106" s="5">
+        <v>6.2408514781174818E-2</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0.84709479424232581</v>
+      </c>
+      <c r="L106" s="6">
+        <v>0.65231263531654116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3556,8 +5168,23 @@
       <c r="G107" s="4">
         <v>5.073995915800964</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" s="5">
+        <v>0.46602521541708453</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1.5719857755432578</v>
+      </c>
+      <c r="J107" s="5">
+        <v>6.2503280060813141E-2</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1.1845035815677376</v>
+      </c>
+      <c r="L107" s="6">
+        <v>0.75350782430482788</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3579,8 +5206,23 @@
       <c r="G108" s="4">
         <v>5.3886926681437615</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" s="5">
+        <v>0.46961025066179152</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1.6607873633915031</v>
+      </c>
+      <c r="J108" s="5">
+        <v>6.2529136743234556E-2</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1.3573533932697763</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0.81729511145720513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3602,8 +5244,23 @@
       <c r="G109" s="4">
         <v>4.6919048441289704</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" s="5">
+        <v>0.46999963753353374</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1.4452264410143516</v>
+      </c>
+      <c r="J109" s="5">
+        <v>6.2619139799364537E-2</v>
+      </c>
+      <c r="K109" s="4">
+        <v>1.0703355148036025</v>
+      </c>
+      <c r="L109" s="6">
+        <v>0.74060056225678583</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3625,8 +5282,23 @@
       <c r="G110" s="4">
         <v>5.507359266792065</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" s="5">
+        <v>0.47346582453393066</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1.6879542423860647</v>
+      </c>
+      <c r="J110" s="5">
+        <v>6.2624040992633481E-2</v>
+      </c>
+      <c r="K110" s="4">
+        <v>1.210212733857724</v>
+      </c>
+      <c r="L110" s="6">
+        <v>0.71697010704922126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3648,8 +5320,23 @@
       <c r="G111" s="4">
         <v>7.0762526949947642</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" s="5">
+        <v>0.47072503232646651</v>
+      </c>
+      <c r="I111" s="4">
+        <v>2.1773617139353911</v>
+      </c>
+      <c r="J111" s="5">
+        <v>6.2629054834670572E-2</v>
+      </c>
+      <c r="K111" s="4">
+        <v>1.29719093070423</v>
+      </c>
+      <c r="L111" s="6">
+        <v>0.59576271705433381</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3671,8 +5358,23 @@
       <c r="G112" s="4">
         <v>5.4836085694144003</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" s="5">
+        <v>0.47422017935119598</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1.6788605908043228</v>
+      </c>
+      <c r="J112" s="5">
+        <v>6.264509454426466E-2</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1.2678278227754358</v>
+      </c>
+      <c r="L112" s="6">
+        <v>0.75517159061315164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3694,8 +5396,23 @@
       <c r="G113" s="4">
         <v>5.8617546151646707</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" s="5">
+        <v>0.46963405360437077</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1.8065189639546941</v>
+      </c>
+      <c r="J113" s="5">
+        <v>6.2648268723733053E-2</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1.3866037154076147</v>
+      </c>
+      <c r="L113" s="6">
+        <v>0.76755558235168864</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3717,8 +5434,23 @@
       <c r="G114" s="4">
         <v>4.9474648138015027</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" s="5">
+        <v>0.46605583509200788</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1.5327168349573301</v>
+      </c>
+      <c r="J114" s="5">
+        <v>6.2670025257262771E-2</v>
+      </c>
+      <c r="K114" s="4">
+        <v>1.1632689271941514</v>
+      </c>
+      <c r="L114" s="6">
+        <v>0.75895879830049362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3740,8 +5472,23 @@
       <c r="G115" s="4">
         <v>5.3096524966850609</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" s="5">
+        <v>0.47250355616756506</v>
+      </c>
+      <c r="I115" s="4">
+        <v>1.6296093211720739</v>
+      </c>
+      <c r="J115" s="5">
+        <v>6.2702992575333183E-2</v>
+      </c>
+      <c r="K115" s="4">
+        <v>1.1486219873645602</v>
+      </c>
+      <c r="L115" s="6">
+        <v>0.70484500330326372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3763,8 +5510,23 @@
       <c r="G116" s="4">
         <v>4.6000581359715227</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" s="5">
+        <v>0.46721153856817627</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1.4226878164538201</v>
+      </c>
+      <c r="J116" s="5">
+        <v>6.2765395682875258E-2</v>
+      </c>
+      <c r="K116" s="4">
+        <v>1.078763669596416</v>
+      </c>
+      <c r="L116" s="6">
+        <v>0.75825747371994345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3786,8 +5548,23 @@
       <c r="G117" s="4">
         <v>5.3120052293031392</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" s="5">
+        <v>0.47380011981608189</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1.6273015660727597</v>
+      </c>
+      <c r="J117" s="5">
+        <v>6.2788870078519896E-2</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1.1162338031224448</v>
+      </c>
+      <c r="L117" s="6">
+        <v>0.68594157739078565</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3809,8 +5586,23 @@
       <c r="G118" s="4">
         <v>5.6338646017340466</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" s="5">
+        <v>0.47055100855631204</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1.7339853451694611</v>
+      </c>
+      <c r="J118" s="5">
+        <v>6.2835056862139763E-2</v>
+      </c>
+      <c r="K118" s="4">
+        <v>1.3985225872834959</v>
+      </c>
+      <c r="L118" s="6">
+        <v>0.80653656686286423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3832,8 +5624,23 @@
       <c r="G119" s="4">
         <v>7.9902147376188282</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" s="5">
+        <v>0.49112826350881456</v>
+      </c>
+      <c r="I119" s="4">
+        <v>2.3891292786460432</v>
+      </c>
+      <c r="J119" s="5">
+        <v>6.2854400552725231E-2</v>
+      </c>
+      <c r="K119" s="4">
+        <v>1.2001978095721875</v>
+      </c>
+      <c r="L119" s="6">
+        <v>0.50235783400233514</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3855,8 +5662,23 @@
       <c r="G120" s="4">
         <v>5.1435617834269465</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" s="5">
+        <v>0.46543879372577468</v>
+      </c>
+      <c r="I120" s="4">
+        <v>1.5949072829508097</v>
+      </c>
+      <c r="J120" s="5">
+        <v>6.2863152462693223E-2</v>
+      </c>
+      <c r="K120" s="4">
+        <v>1.3280166734636187</v>
+      </c>
+      <c r="L120" s="6">
+        <v>0.8326607368715474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3878,8 +5700,23 @@
       <c r="G121" s="4">
         <v>5.2337638176699954</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" s="5">
+        <v>0.47708947086281395</v>
+      </c>
+      <c r="I121" s="4">
+        <v>1.5958326045850064</v>
+      </c>
+      <c r="J121" s="5">
+        <v>6.2867958957791126E-2</v>
+      </c>
+      <c r="K121" s="4">
+        <v>0.85745494161883229</v>
+      </c>
+      <c r="L121" s="6">
+        <v>0.53730882497028054</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3901,8 +5738,23 @@
       <c r="G122" s="4">
         <v>5.4166458052783923</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" s="5">
+        <v>0.47945227052657585</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1.6460839736245396</v>
+      </c>
+      <c r="J122" s="5">
+        <v>6.2923948259774418E-2</v>
+      </c>
+      <c r="K122" s="4">
+        <v>1.054707123148904</v>
+      </c>
+      <c r="L122" s="6">
+        <v>0.64073713130596055</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3924,8 +5776,23 @@
       <c r="G123" s="4">
         <v>4.5582945803265602</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" s="5">
+        <v>0.47105911188235916</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1.4019233695912741</v>
+      </c>
+      <c r="J123" s="5">
+        <v>6.2980912656119797E-2</v>
+      </c>
+      <c r="K123" s="4">
+        <v>0.98888275445849061</v>
+      </c>
+      <c r="L123" s="6">
+        <v>0.7053757544157323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3947,8 +5814,23 @@
       <c r="G124" s="4">
         <v>8.3133800930219763</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" s="5">
+        <v>0.53466006251877252</v>
+      </c>
+      <c r="I124" s="4">
+        <v>2.3500249269221429</v>
+      </c>
+      <c r="J124" s="5">
+        <v>6.3092470511560944E-2</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1.7657698606895034</v>
+      </c>
+      <c r="L124" s="6">
+        <v>0.75138346000531742</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3970,8 +5852,23 @@
       <c r="G125" s="4">
         <v>7.011964601729062</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" s="5">
+        <v>0.48278114648017428</v>
+      </c>
+      <c r="I125" s="4">
+        <v>2.1209462092538569</v>
+      </c>
+      <c r="J125" s="5">
+        <v>6.3165628563178103E-2</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1.3117497334936772</v>
+      </c>
+      <c r="L125" s="6">
+        <v>0.61847383388150479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3993,8 +5890,23 @@
       <c r="G126" s="4">
         <v>5.2821736377429431</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" s="5">
+        <v>0.50015054218238109</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1.5603173740398093</v>
+      </c>
+      <c r="J126" s="5">
+        <v>6.3207139876557059E-2</v>
+      </c>
+      <c r="K126" s="4">
+        <v>1.0434298147189804</v>
+      </c>
+      <c r="L126" s="6">
+        <v>0.66872921629875959</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4016,8 +5928,23 @@
       <c r="G127" s="4">
         <v>7.1638112813977273</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" s="5">
+        <v>0.50855858180673219</v>
+      </c>
+      <c r="I127" s="4">
+        <v>2.0928023407714313</v>
+      </c>
+      <c r="J127" s="5">
+        <v>6.3221425860942759E-2</v>
+      </c>
+      <c r="K127" s="4">
+        <v>1.3899688506026779</v>
+      </c>
+      <c r="L127" s="6">
+        <v>0.66416633024708827</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -4039,8 +5966,23 @@
       <c r="G128" s="4">
         <v>6.1085142451980801</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" s="5">
+        <v>0.48085025759178801</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1.8526856306929727</v>
+      </c>
+      <c r="J128" s="5">
+        <v>6.3232801497041247E-2</v>
+      </c>
+      <c r="K128" s="4">
+        <v>1.2176934236284884</v>
+      </c>
+      <c r="L128" s="6">
+        <v>0.65725852430399978</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -4062,8 +6004,23 @@
       <c r="G129" s="4">
         <v>4.4067010396111925</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" s="5">
+        <v>0.46551509202244346</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1.366272982496725</v>
+      </c>
+      <c r="J129" s="5">
+        <v>6.3379191033526489E-2</v>
+      </c>
+      <c r="K129" s="4">
+        <v>1.0434442290446686</v>
+      </c>
+      <c r="L129" s="6">
+        <v>0.76371577452836714</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4085,8 +6042,23 @@
       <c r="G130" s="4">
         <v>12.887189336049744</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" s="5">
+        <v>0.56209017564803077</v>
+      </c>
+      <c r="I130" s="4">
+        <v>3.5269969662248215</v>
+      </c>
+      <c r="J130" s="5">
+        <v>6.3490948605533365E-2</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1.1336638911740309</v>
+      </c>
+      <c r="L130" s="6">
+        <v>0.32142468565473875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -4108,8 +6080,23 @@
       <c r="G131" s="4">
         <v>5.6895899660467535</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" s="5">
+        <v>0.47967235371411099</v>
+      </c>
+      <c r="I131" s="4">
+        <v>1.7284920412969491</v>
+      </c>
+      <c r="J131" s="5">
+        <v>6.3497329337778199E-2</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1.1984752037103348</v>
+      </c>
+      <c r="L131" s="6">
+        <v>0.69336460630219399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -4131,8 +6118,23 @@
       <c r="G132" s="4">
         <v>5.1858748836920654</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" s="5">
+        <v>0.48382531224449887</v>
+      </c>
+      <c r="I132" s="4">
+        <v>1.5663273724056133</v>
+      </c>
+      <c r="J132" s="5">
+        <v>6.3617519525467917E-2</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1.1829700064432944</v>
+      </c>
+      <c r="L132" s="6">
+        <v>0.7552508034297154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -4154,8 +6156,23 @@
       <c r="G133" s="4">
         <v>25.615288210420886</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" s="5">
+        <v>0.77648381507515807</v>
+      </c>
+      <c r="I133" s="4">
+        <v>5.7704019619631728</v>
+      </c>
+      <c r="J133" s="5">
+        <v>6.3723676057607523E-2</v>
+      </c>
+      <c r="K133" s="4">
+        <v>1.8223479812828001</v>
+      </c>
+      <c r="L133" s="6">
+        <v>0.31580953862403233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -4177,8 +6194,23 @@
       <c r="G134" s="4">
         <v>5.7650003113816126</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" s="5">
+        <v>0.48769322564014078</v>
+      </c>
+      <c r="I134" s="4">
+        <v>1.7319343274618142</v>
+      </c>
+      <c r="J134" s="5">
+        <v>6.3746336016325122E-2</v>
+      </c>
+      <c r="K134" s="4">
+        <v>1.214307321652502</v>
+      </c>
+      <c r="L134" s="6">
+        <v>0.70112780975482736</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -4200,8 +6232,23 @@
       <c r="G135" s="4">
         <v>6.3115044859362683</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" s="5">
+        <v>0.48633092485152152</v>
+      </c>
+      <c r="I135" s="4">
+        <v>1.8996824856019134</v>
+      </c>
+      <c r="J135" s="5">
+        <v>6.3847074186397193E-2</v>
+      </c>
+      <c r="K135" s="4">
+        <v>1.088872617735867</v>
+      </c>
+      <c r="L135" s="6">
+        <v>0.57318663828753369</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -4223,8 +6270,23 @@
       <c r="G136" s="4">
         <v>5.025325789714401</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" s="5">
+        <v>0.48640831072005875</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1.5124043007542813</v>
+      </c>
+      <c r="J136" s="5">
+        <v>6.3853102387129088E-2</v>
+      </c>
+      <c r="K136" s="4">
+        <v>1.1673205891872656</v>
+      </c>
+      <c r="L136" s="6">
+        <v>0.77183104319730356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -4246,8 +6308,23 @@
       <c r="G137" s="4">
         <v>5.2631826472155012</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" s="5">
+        <v>0.48711988116759336</v>
+      </c>
+      <c r="I137" s="4">
+        <v>1.5824309403227479</v>
+      </c>
+      <c r="J137" s="5">
+        <v>6.3982191388370246E-2</v>
+      </c>
+      <c r="K137" s="4">
+        <v>1.0391907132591287</v>
+      </c>
+      <c r="L137" s="6">
+        <v>0.65670525441519623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4269,8 +6346,23 @@
       <c r="G138" s="4">
         <v>5.1732659111823125</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" s="5">
+        <v>0.48772136014683509</v>
+      </c>
+      <c r="I138" s="4">
+        <v>1.5541071404814417</v>
+      </c>
+      <c r="J138" s="5">
+        <v>6.4133734820554039E-2</v>
+      </c>
+      <c r="K138" s="4">
+        <v>1.0478540442891906</v>
+      </c>
+      <c r="L138" s="6">
+        <v>0.67424826576923103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -4292,8 +6384,23 @@
       <c r="G139" s="4">
         <v>5.3831839328034334</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" s="5">
+        <v>0.49463767676554915</v>
+      </c>
+      <c r="I139" s="4">
+        <v>1.601968497315349</v>
+      </c>
+      <c r="J139" s="5">
+        <v>6.417532220879929E-2</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1.0729967946312633</v>
+      </c>
+      <c r="L139" s="6">
+        <v>0.66979893576524119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -4315,8 +6422,23 @@
       <c r="G140" s="4">
         <v>5.3135399329485153</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140" s="5">
+        <v>0.48338129629154675</v>
+      </c>
+      <c r="I140" s="4">
+        <v>1.6058797822791517</v>
+      </c>
+      <c r="J140" s="5">
+        <v>6.420236080837205E-2</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1.1875145996964571</v>
+      </c>
+      <c r="L140" s="6">
+        <v>0.73947913959728162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -4338,8 +6460,23 @@
       <c r="G141" s="4">
         <v>5.5583722554521842</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" s="5">
+        <v>0.48664458362895824</v>
+      </c>
+      <c r="I141" s="4">
+        <v>1.6722786265444369</v>
+      </c>
+      <c r="J141" s="5">
+        <v>6.4367688146443433E-2</v>
+      </c>
+      <c r="K141" s="4">
+        <v>1.1568520206213735</v>
+      </c>
+      <c r="L141" s="6">
+        <v>0.69178186114348006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -4361,8 +6498,23 @@
       <c r="G142" s="4">
         <v>6.7067043699429973</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" s="5">
+        <v>0.48418722357896588</v>
+      </c>
+      <c r="I142" s="4">
+        <v>2.024642271834459</v>
+      </c>
+      <c r="J142" s="5">
+        <v>6.4564881371304547E-2</v>
+      </c>
+      <c r="K142" s="4">
+        <v>1.6392625804325092</v>
+      </c>
+      <c r="L142" s="6">
+        <v>0.80965541579215861</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -4384,8 +6536,23 @@
       <c r="G143" s="4">
         <v>5.5642082201206335</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" s="5">
+        <v>0.50246037402094013</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1.6385900939027502</v>
+      </c>
+      <c r="J143" s="5">
+        <v>6.5774513123317641E-2</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1.1593019538276037</v>
+      </c>
+      <c r="L143" s="6">
+        <v>0.70749967190782259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -4407,8 +6574,23 @@
       <c r="G144" s="4">
         <v>6.7427714813359501</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" s="5">
+        <v>0.53241824021817596</v>
+      </c>
+      <c r="I144" s="4">
+        <v>1.9112897637162451</v>
+      </c>
+      <c r="J144" s="5">
+        <v>6.8407665729242909E-2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>1.4095394302480229</v>
+      </c>
+      <c r="L144" s="6">
+        <v>0.73748076142435026</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -4430,8 +6612,23 @@
       <c r="G145" s="4">
         <v>6.2409711749141081</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" s="5">
+        <v>0.55838445296715344</v>
+      </c>
+      <c r="I145" s="4">
+        <v>1.7153710887676665</v>
+      </c>
+      <c r="J145" s="5">
+        <v>7.1846638110661401E-2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>1.4684515578219965</v>
+      </c>
+      <c r="L145" s="6">
+        <v>0.85605474374465607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -4453,8 +6650,23 @@
       <c r="G146" s="4">
         <v>5.9539611054564148</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" s="5">
+        <v>0.65593732793005066</v>
+      </c>
+      <c r="I146" s="4">
+        <v>1.4803099379124103</v>
+      </c>
+      <c r="J146" s="5">
+        <v>8.3051043415209941E-2</v>
+      </c>
+      <c r="K146" s="4">
+        <v>1.0048396490690308</v>
+      </c>
+      <c r="L146" s="6">
+        <v>0.67880355548115434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -4476,8 +6688,23 @@
       <c r="G147" s="4">
         <v>6.2920055801864123</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" s="5">
+        <v>0.68128882290985848</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1.5292014156120657</v>
+      </c>
+      <c r="J147" s="5">
+        <v>8.4610994751381063E-2</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1.241826353781341</v>
+      </c>
+      <c r="L147" s="6">
+        <v>0.81207507467830697</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -4499,8 +6726,23 @@
       <c r="G148" s="4">
         <v>6.4860285592167202</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" s="5">
+        <v>0.70504920273411398</v>
+      </c>
+      <c r="I148" s="4">
+        <v>1.5447582708145577</v>
+      </c>
+      <c r="J148" s="5">
+        <v>8.6446527369900494E-2</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1.1814622891325519</v>
+      </c>
+      <c r="L148" s="6">
+        <v>0.76482017378004519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -4522,8 +6764,23 @@
       <c r="G149" s="4">
         <v>6.5082424742950025</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" s="5">
+        <v>0.69824483373478341</v>
+      </c>
+      <c r="I149" s="4">
+        <v>1.5589078275723693</v>
+      </c>
+      <c r="J149" s="5">
+        <v>8.6887843525903133E-2</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1.1530554280373793</v>
+      </c>
+      <c r="L149" s="6">
+        <v>0.73965593580538402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -4545,8 +6802,23 @@
       <c r="G150" s="4">
         <v>6.3803878704383692</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" s="5">
+        <v>0.69629711065009725</v>
+      </c>
+      <c r="I150" s="4">
+        <v>1.5308011622054465</v>
+      </c>
+      <c r="J150" s="5">
+        <v>8.7508331026165134E-2</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1.3331378038308184</v>
+      </c>
+      <c r="L150" s="6">
+        <v>0.87087587646598619</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -4568,8 +6840,23 @@
       <c r="G151" s="4">
         <v>9.0230129149432514</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" s="5">
+        <v>0.72568930761564898</v>
+      </c>
+      <c r="I151" s="4">
+        <v>2.1131100760521337</v>
+      </c>
+      <c r="J151" s="5">
+        <v>8.7515296738999951E-2</v>
+      </c>
+      <c r="K151" s="4">
+        <v>1.5012854436055172</v>
+      </c>
+      <c r="L151" s="6">
+        <v>0.71046248873618922</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -4591,8 +6878,23 @@
       <c r="G152" s="4">
         <v>5.3360829842258113</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" s="5">
+        <v>0.71157399202434102</v>
+      </c>
+      <c r="I152" s="4">
+        <v>1.2640500741527099</v>
+      </c>
+      <c r="J152" s="5">
+        <v>8.7973547667528532E-2</v>
+      </c>
+      <c r="K152" s="4">
+        <v>1.0303005725522258</v>
+      </c>
+      <c r="L152" s="6">
+        <v>0.81507892259951353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -4614,8 +6916,23 @@
       <c r="G153" s="4">
         <v>7.0016406390415682</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" s="5">
+        <v>0.71166115643756911</v>
+      </c>
+      <c r="I153" s="4">
+        <v>1.6584697547309712</v>
+      </c>
+      <c r="J153" s="5">
+        <v>8.8466278663446779E-2</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1.272785404048818</v>
+      </c>
+      <c r="L153" s="6">
+        <v>0.76744565308957535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -4637,8 +6954,23 @@
       <c r="G154" s="4">
         <v>5.4808098097921061</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" s="5">
+        <v>0.72522853592172154</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1.2840512324046682</v>
+      </c>
+      <c r="J154" s="5">
+        <v>8.947334749203989E-2</v>
+      </c>
+      <c r="K154" s="4">
+        <v>0.95670998804120222</v>
+      </c>
+      <c r="L154" s="6">
+        <v>0.74507150797211774</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -4660,8 +6992,23 @@
       <c r="G155" s="4">
         <v>7.8794786384060558</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" s="5">
+        <v>0.7279585665312982</v>
+      </c>
+      <c r="I155" s="4">
+        <v>1.841982575969844</v>
+      </c>
+      <c r="J155" s="5">
+        <v>8.9629541403968907E-2</v>
+      </c>
+      <c r="K155" s="4">
+        <v>1.6037827561518807</v>
+      </c>
+      <c r="L155" s="6">
+        <v>0.87068291365755945</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -4683,8 +7030,23 @@
       <c r="G156" s="4">
         <v>10.824035127626246</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" s="5">
+        <v>0.73224653745383317</v>
+      </c>
+      <c r="I156" s="4">
+        <v>2.52171038683825</v>
+      </c>
+      <c r="J156" s="5">
+        <v>8.9700842502237532E-2</v>
+      </c>
+      <c r="K156" s="4">
+        <v>1.3857860636927137</v>
+      </c>
+      <c r="L156" s="6">
+        <v>0.54954211670208042</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -4706,8 +7068,23 @@
       <c r="G157" s="4">
         <v>7.9760499727986485</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" s="5">
+        <v>0.722941536379204</v>
+      </c>
+      <c r="I157" s="4">
+        <v>1.8720454411121528</v>
+      </c>
+      <c r="J157" s="5">
+        <v>8.9995621589955749E-2</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1.2964405291895136</v>
+      </c>
+      <c r="L157" s="6">
+        <v>0.69252620728016012</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -4729,8 +7106,23 @@
       <c r="G158" s="4">
         <v>7.3217337589955491</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" s="5">
+        <v>0.72643216804632937</v>
+      </c>
+      <c r="I158" s="4">
+        <v>1.7136848081611511</v>
+      </c>
+      <c r="J158" s="5">
+        <v>9.0101459121762414E-2</v>
+      </c>
+      <c r="K158" s="4">
+        <v>1.0876057643689045</v>
+      </c>
+      <c r="L158" s="6">
+        <v>0.63465916205206208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -4752,8 +7144,23 @@
       <c r="G159" s="4">
         <v>8.4976412058458095</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" s="5">
+        <v>0.74153176098596241</v>
+      </c>
+      <c r="I159" s="4">
+        <v>1.96544086828019</v>
+      </c>
+      <c r="J159" s="5">
+        <v>9.0793329744463691E-2</v>
+      </c>
+      <c r="K159" s="4">
+        <v>1.5047091588093708</v>
+      </c>
+      <c r="L159" s="6">
+        <v>0.76558353044018534</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -4775,8 +7182,23 @@
       <c r="G160" s="4">
         <v>9.4308180308528904</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" s="5">
+        <v>0.75920116441291152</v>
+      </c>
+      <c r="I160" s="4">
+        <v>2.1521156451890322</v>
+      </c>
+      <c r="J160" s="5">
+        <v>9.0843813605974197E-2</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1.6857264928507325</v>
+      </c>
+      <c r="L160" s="6">
+        <v>0.78328806196781575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -4798,8 +7220,23 @@
       <c r="G161" s="4">
         <v>6.8620274760673965</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" s="5">
+        <v>0.74577571746868809</v>
+      </c>
+      <c r="I161" s="4">
+        <v>1.5819623389750599</v>
+      </c>
+      <c r="J161" s="5">
+        <v>9.092868516306532E-2</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1.2502468126630311</v>
+      </c>
+      <c r="L161" s="6">
+        <v>0.79031389171568744</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -4821,8 +7258,23 @@
       <c r="G162" s="4">
         <v>7.7015872140357828</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" s="5">
+        <v>0.75080510139050072</v>
+      </c>
+      <c r="I162" s="4">
+        <v>1.7686935305774059</v>
+      </c>
+      <c r="J162" s="5">
+        <v>9.1032669558664916E-2</v>
+      </c>
+      <c r="K162" s="4">
+        <v>1.3214998622557041</v>
+      </c>
+      <c r="L162" s="6">
+        <v>0.74716158532240928</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -4844,8 +7296,23 @@
       <c r="G163" s="4">
         <v>6.3077695738477928</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" s="5">
+        <v>0.74390498721368481</v>
+      </c>
+      <c r="I163" s="4">
+        <v>1.4562826383906926</v>
+      </c>
+      <c r="J163" s="5">
+        <v>9.1202622183664595E-2</v>
+      </c>
+      <c r="K163" s="4">
+        <v>1.0979749929787332</v>
+      </c>
+      <c r="L163" s="6">
+        <v>0.75395734593944064</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -4867,8 +7334,23 @@
       <c r="G164" s="4">
         <v>8.2846091145535183</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" s="5">
+        <v>0.75616655987410697</v>
+      </c>
+      <c r="I164" s="4">
+        <v>1.8948756296965852</v>
+      </c>
+      <c r="J164" s="5">
+        <v>9.1569784064472845E-2</v>
+      </c>
+      <c r="K164" s="4">
+        <v>1.0246495304737266</v>
+      </c>
+      <c r="L164" s="6">
+        <v>0.54074764296683531</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -4890,8 +7372,23 @@
       <c r="G165" s="4">
         <v>7.4391540625925927</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" s="5">
+        <v>0.77951535593477206</v>
+      </c>
+      <c r="I165" s="4">
+        <v>1.6724877165365253</v>
+      </c>
+      <c r="J165" s="5">
+        <v>9.1757404754922917E-2</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1.0849471834942901</v>
+      </c>
+      <c r="L165" s="6">
+        <v>0.64870263187406552</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -4913,8 +7410,23 @@
       <c r="G166" s="4">
         <v>6.5577527112965299</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" s="5">
+        <v>0.73872856867053982</v>
+      </c>
+      <c r="I166" s="4">
+        <v>1.5200783795060901</v>
+      </c>
+      <c r="J166" s="5">
+        <v>9.1783289224623685E-2</v>
+      </c>
+      <c r="K166" s="4">
+        <v>1.1469816030780131</v>
+      </c>
+      <c r="L166" s="6">
+        <v>0.75455425097927853</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -4936,8 +7448,23 @@
       <c r="G167" s="4">
         <v>7.9243592559270724</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" s="5">
+        <v>0.75122336188007066</v>
+      </c>
+      <c r="I167" s="4">
+        <v>1.8192730469255103</v>
+      </c>
+      <c r="J167" s="5">
+        <v>9.2115748010127271E-2</v>
+      </c>
+      <c r="K167" s="4">
+        <v>1.3865528413669403</v>
+      </c>
+      <c r="L167" s="6">
+        <v>0.7621466407750902</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -4959,8 +7486,23 @@
       <c r="G168" s="4">
         <v>7.3678040465570689</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" s="5">
+        <v>0.75509701862306811</v>
+      </c>
+      <c r="I168" s="4">
+        <v>1.6865487807997128</v>
+      </c>
+      <c r="J168" s="5">
+        <v>9.2143626173939397E-2</v>
+      </c>
+      <c r="K168" s="4">
+        <v>1.1842618131105112</v>
+      </c>
+      <c r="L168" s="6">
+        <v>0.70218058712121478</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -4982,8 +7524,23 @@
       <c r="G169" s="4">
         <v>7.2818593919247974</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" s="5">
+        <v>0.75026902810165341</v>
+      </c>
+      <c r="I169" s="4">
+        <v>1.672987599021871</v>
+      </c>
+      <c r="J169" s="5">
+        <v>9.2563468336280319E-2</v>
+      </c>
+      <c r="K169" s="4">
+        <v>1.4082742628476577</v>
+      </c>
+      <c r="L169" s="6">
+        <v>0.84177208705612605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -5005,8 +7562,23 @@
       <c r="G170" s="4">
         <v>7.2471927551709996</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" s="5">
+        <v>0.75042412268154413</v>
+      </c>
+      <c r="I170" s="4">
+        <v>1.6648266937673033</v>
+      </c>
+      <c r="J170" s="5">
+        <v>9.2912323007111192E-2</v>
+      </c>
+      <c r="K170" s="4">
+        <v>1.4000968281735968</v>
+      </c>
+      <c r="L170" s="6">
+        <v>0.84098653236112253</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -5028,8 +7600,23 @@
       <c r="G171" s="4">
         <v>6.5115703849797342</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" s="5">
+        <v>0.7789264636292178</v>
+      </c>
+      <c r="I171" s="4">
+        <v>1.4645743097314139</v>
+      </c>
+      <c r="J171" s="5">
+        <v>9.4423254253990258E-2</v>
+      </c>
+      <c r="K171" s="4">
+        <v>1.2252088361858429</v>
+      </c>
+      <c r="L171" s="6">
+        <v>0.83656310782245791</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -5051,8 +7638,23 @@
       <c r="G172" s="4">
         <v>8.9376229977461321</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" s="5">
+        <v>0.83203661678275254</v>
+      </c>
+      <c r="I172" s="4">
+        <v>1.93808408360082</v>
+      </c>
+      <c r="J172" s="5">
+        <v>9.5176984990535243E-2</v>
+      </c>
+      <c r="K172" s="4">
+        <v>1.2911536062069657</v>
+      </c>
+      <c r="L172" s="6">
+        <v>0.66620102663868741</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -5074,8 +7676,23 @@
       <c r="G173" s="4">
         <v>7.5950878359550984</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" s="5">
+        <v>0.79569636880942429</v>
+      </c>
+      <c r="I173" s="4">
+        <v>1.688030614088476</v>
+      </c>
+      <c r="J173" s="5">
+        <v>9.5914986264706514E-2</v>
+      </c>
+      <c r="K173" s="4">
+        <v>1.2339219154002554</v>
+      </c>
+      <c r="L173" s="6">
+        <v>0.73098313804371617</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -5097,8 +7714,23 @@
       <c r="G174" s="4">
         <v>7.1720112523226476</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" s="5">
+        <v>0.79935590157357761</v>
+      </c>
+      <c r="I174" s="4">
+        <v>1.5899399288230525</v>
+      </c>
+      <c r="J174" s="5">
+        <v>9.5933604296031733E-2</v>
+      </c>
+      <c r="K174" s="4">
+        <v>1.2357159656954739</v>
+      </c>
+      <c r="L174" s="6">
+        <v>0.77720921608038906</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -5120,8 +7752,23 @@
       <c r="G175" s="4">
         <v>8.0559709452288075</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" s="5">
+        <v>0.80134845209246763</v>
+      </c>
+      <c r="I175" s="4">
+        <v>1.7834264212916902</v>
+      </c>
+      <c r="J175" s="5">
+        <v>9.7389722672407211E-2</v>
+      </c>
+      <c r="K175" s="4">
+        <v>1.4302068573701281</v>
+      </c>
+      <c r="L175" s="6">
+        <v>0.80194329314369228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -5143,8 +7790,23 @@
       <c r="G176" s="4">
         <v>7.038492447708677</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" s="5">
+        <v>0.81778433173223619</v>
+      </c>
+      <c r="I176" s="4">
+        <v>1.5408002934291571</v>
+      </c>
+      <c r="J176" s="5">
+        <v>9.741398521582402E-2</v>
+      </c>
+      <c r="K176" s="4">
+        <v>1.2800967198009963</v>
+      </c>
+      <c r="L176" s="6">
+        <v>0.83079989357482087</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -5166,8 +7828,23 @@
       <c r="G177" s="4">
         <v>13.296590114725234</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" s="5">
+        <v>0.84939064204606152</v>
+      </c>
+      <c r="I177" s="4">
+        <v>2.8510624523875703</v>
+      </c>
+      <c r="J177" s="5">
+        <v>9.9576975497425974E-2</v>
+      </c>
+      <c r="K177" s="4">
+        <v>1.5426304703321985</v>
+      </c>
+      <c r="L177" s="6">
+        <v>0.54107214278675297</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -5189,8 +7866,23 @@
       <c r="G178" s="4">
         <v>7.9217076271776818</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" s="5">
+        <v>0.83898855542839124</v>
+      </c>
+      <c r="I178" s="4">
+        <v>1.7100274321432414</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0.10021181368795876</v>
+      </c>
+      <c r="K178" s="4">
+        <v>1.2351565108047509</v>
+      </c>
+      <c r="L178" s="6">
+        <v>0.72230216170081118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -5212,8 +7904,23 @@
       <c r="G179" s="4">
         <v>8.914960730748021</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" s="5">
+        <v>0.85225638050256025</v>
+      </c>
+      <c r="I179" s="4">
+        <v>1.9081354614719483</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0.1014518653331717</v>
+      </c>
+      <c r="K179" s="4">
+        <v>1.6028449460566638</v>
+      </c>
+      <c r="L179" s="6">
+        <v>0.84000584781345577</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -5235,8 +7942,23 @@
       <c r="G180" s="4">
         <v>9.5639425526073865</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" s="5">
+        <v>0.86735855823056673</v>
+      </c>
+      <c r="I180" s="4">
+        <v>2.0277912903093553</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0.10146640523517815</v>
+      </c>
+      <c r="K180" s="4">
+        <v>1.800497459598263</v>
+      </c>
+      <c r="L180" s="6">
+        <v>0.88791063863558828</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -5258,8 +7980,23 @@
       <c r="G181" s="4">
         <v>8.7817020877607206</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181" s="5">
+        <v>0.8685744391131478</v>
+      </c>
+      <c r="I181" s="4">
+        <v>1.8605498908949873</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0.10288257790350062</v>
+      </c>
+      <c r="K181" s="4">
+        <v>1.4260496756740315</v>
+      </c>
+      <c r="L181" s="6">
+        <v>0.76646677557679099</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -5281,8 +8018,23 @@
       <c r="G182" s="4">
         <v>8.0939912409155568</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182" s="5">
+        <v>0.92217165969585657</v>
+      </c>
+      <c r="I182" s="4">
+        <v>1.6615140542076845</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0.10711909488845325</v>
+      </c>
+      <c r="K182" s="4">
+        <v>1.2023848454476653</v>
+      </c>
+      <c r="L182" s="6">
+        <v>0.72366817626531521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -5304,8 +8056,23 @@
       <c r="G183" s="4">
         <v>18.840768869126464</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183" s="5">
+        <v>1.2363248374794713</v>
+      </c>
+      <c r="I183" s="4">
+        <v>3.3559939217867911</v>
+      </c>
+      <c r="J183" s="5">
+        <v>0.13114934950601947</v>
+      </c>
+      <c r="K183" s="4">
+        <v>2.931225205262916</v>
+      </c>
+      <c r="L183" s="6">
+        <v>0.87342983139322239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -5327,8 +8094,23 @@
       <c r="G184" s="4">
         <v>13.068195723266172</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184" s="5">
+        <v>1.6779633862214274</v>
+      </c>
+      <c r="I184" s="4">
+        <v>2.0539217604375595</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0.16564492345234508</v>
+      </c>
+      <c r="K184" s="4">
+        <v>1.564161159520826</v>
+      </c>
+      <c r="L184" s="6">
+        <v>0.76154856024681461</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -5350,8 +8132,23 @@
       <c r="G185" s="4">
         <v>20.055953344490263</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185" s="5">
+        <v>3.020285484361203</v>
+      </c>
+      <c r="I185" s="4">
+        <v>2.6288501076651367</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0.23219543213842353</v>
+      </c>
+      <c r="K185" s="4">
+        <v>1.7274843815980196</v>
+      </c>
+      <c r="L185" s="6">
+        <v>0.65712547724233616</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -5373,8 +8170,23 @@
       <c r="G186" s="4">
         <v>11.1347830367298</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186" s="5">
+        <v>3.8696357195887487</v>
+      </c>
+      <c r="I186" s="4">
+        <v>1.3799419943576774</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0.25781804169788181</v>
+      </c>
+      <c r="K186" s="4">
+        <v>1.0811317826442666</v>
+      </c>
+      <c r="L186" s="6">
+        <v>0.78346175930931194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -5396,8 +8208,23 @@
       <c r="G187" s="4">
         <v>11.869368689325597</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187" s="5">
+        <v>4.0872864610036137</v>
+      </c>
+      <c r="I187" s="4">
+        <v>1.4548862688162327</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0.26902520796492424</v>
+      </c>
+      <c r="K187" s="4">
+        <v>1.169956829357546</v>
+      </c>
+      <c r="L187" s="6">
+        <v>0.80415689833232162</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -5419,8 +8246,23 @@
       <c r="G188" s="4">
         <v>11.183645046762877</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188" s="5">
+        <v>4.700041749669059</v>
+      </c>
+      <c r="I188" s="4">
+        <v>1.3357101419797208</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0.30386389672061942</v>
+      </c>
+      <c r="K188" s="4">
+        <v>0.95552041647743868</v>
+      </c>
+      <c r="L188" s="6">
+        <v>0.71536509789557745</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -5442,8 +8284,23 @@
       <c r="G189" s="4">
         <v>10.704541711255274</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189" s="5">
+        <v>4.5206856539779805</v>
+      </c>
+      <c r="I189" s="4">
+        <v>1.2873919492013108</v>
+      </c>
+      <c r="J189" s="5">
+        <v>0.28935192626759737</v>
+      </c>
+      <c r="K189" s="4">
+        <v>1.0292110889996147</v>
+      </c>
+      <c r="L189" s="6">
+        <v>0.79945434615940414</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -5465,8 +8322,23 @@
       <c r="G190" s="4">
         <v>10.837219118448388</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" s="5">
+        <v>4.9392491483625891</v>
+      </c>
+      <c r="I190" s="4">
+        <v>1.2833409841960082</v>
+      </c>
+      <c r="J190" s="5">
+        <v>0.31511389716946997</v>
+      </c>
+      <c r="K190" s="4">
+        <v>1.0867721104442838</v>
+      </c>
+      <c r="L190" s="6">
+        <v>0.84683036217777186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -5488,8 +8360,23 @@
       <c r="G191" s="4">
         <v>14.837812743144241</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191" s="5">
+        <v>5.3826059786157803</v>
+      </c>
+      <c r="I191" s="4">
+        <v>1.7326646252941893</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0.33974771997564462</v>
+      </c>
+      <c r="K191" s="4">
+        <v>1.3313814953270553</v>
+      </c>
+      <c r="L191" s="6">
+        <v>0.76840115270489817</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -5511,8 +8398,23 @@
       <c r="G192" s="4">
         <v>14.423732186688653</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192" s="5">
+        <v>5.2046249003284704</v>
+      </c>
+      <c r="I192" s="4">
+        <v>1.6933417845110121</v>
+      </c>
+      <c r="J192" s="5">
+        <v>0.32791373362333048</v>
+      </c>
+      <c r="K192" s="4">
+        <v>1.4308924706727244</v>
+      </c>
+      <c r="L192" s="6">
+        <v>0.8450110212604981</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -5534,8 +8436,23 @@
       <c r="G193" s="4">
         <v>13.637225706878894</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193" s="5">
+        <v>5.3514983612036664</v>
+      </c>
+      <c r="I193" s="4">
+        <v>1.5939357062788788</v>
+      </c>
+      <c r="J193" s="5">
+        <v>0.33677651175223883</v>
+      </c>
+      <c r="K193" s="4">
+        <v>1.1417832217579296</v>
+      </c>
+      <c r="L193" s="6">
+        <v>0.71632953403338873</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -5557,8 +8474,23 @@
       <c r="G194" s="4">
         <v>15.249779736654546</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194" s="5">
+        <v>5.41559076848751</v>
+      </c>
+      <c r="I194" s="4">
+        <v>1.7790650290254784</v>
+      </c>
+      <c r="J194" s="5">
+        <v>0.34072746991408709</v>
+      </c>
+      <c r="K194" s="4">
+        <v>1.5301712989942158</v>
+      </c>
+      <c r="L194" s="6">
+        <v>0.8600985765160033</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -5580,8 +8512,23 @@
       <c r="G195" s="4">
         <v>18.144627713422437</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195" s="5">
+        <v>5.4629312740491196</v>
+      </c>
+      <c r="I195" s="4">
+        <v>2.1138576012360222</v>
+      </c>
+      <c r="J195" s="5">
+        <v>0.34299662030927297</v>
+      </c>
+      <c r="K195" s="4">
+        <v>1.5989001639384317</v>
+      </c>
+      <c r="L195" s="6">
+        <v>0.75638972228002332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -5603,8 +8550,23 @@
       <c r="G196" s="4">
         <v>16.037088193635782</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196" s="5">
+        <v>5.4661386432155883</v>
+      </c>
+      <c r="I196" s="4">
+        <v>1.8682021433026179</v>
+      </c>
+      <c r="J196" s="5">
+        <v>0.34171618156773459</v>
+      </c>
+      <c r="K196" s="4">
+        <v>1.3362264332708398</v>
+      </c>
+      <c r="L196" s="6">
+        <v>0.71524724348546753</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -5626,8 +8588,23 @@
       <c r="G197" s="4">
         <v>12.049356535431116</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197" s="5">
+        <v>5.5804624137526986</v>
+      </c>
+      <c r="I197" s="4">
+        <v>1.3992643988784579</v>
+      </c>
+      <c r="J197" s="5">
+        <v>0.34272807663480787</v>
+      </c>
+      <c r="K197" s="4">
+        <v>1.1533828374915358</v>
+      </c>
+      <c r="L197" s="6">
+        <v>0.82427798378633654</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -5649,8 +8626,23 @@
       <c r="G198" s="4">
         <v>10.267327179149333</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198" s="5">
+        <v>4.9001052500850335</v>
+      </c>
+      <c r="I198" s="4">
+        <v>1.2174945889832318</v>
+      </c>
+      <c r="J198" s="5">
+        <v>0.29994778806971678</v>
+      </c>
+      <c r="K198" s="4">
+        <v>0.87512529210417911</v>
+      </c>
+      <c r="L198" s="6">
+        <v>0.71879193552311704</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -5672,8 +8664,23 @@
       <c r="G199" s="4">
         <v>13.22600020649395</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199" s="5">
+        <v>5.6207332618297023</v>
+      </c>
+      <c r="I199" s="4">
+        <v>1.534218336348866</v>
+      </c>
+      <c r="J199" s="5">
+        <v>0.34163220500946234</v>
+      </c>
+      <c r="K199" s="4">
+        <v>1.128471193843394</v>
+      </c>
+      <c r="L199" s="6">
+        <v>0.73553494121894702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -5695,8 +8702,23 @@
       <c r="G200" s="4">
         <v>13.466974823375836</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200" s="5">
+        <v>5.402401677743331</v>
+      </c>
+      <c r="I200" s="4">
+        <v>1.5717038594821751</v>
+      </c>
+      <c r="J200" s="5">
+        <v>0.32156787790366353</v>
+      </c>
+      <c r="K200" s="4">
+        <v>1.1868915262894704</v>
+      </c>
+      <c r="L200" s="6">
+        <v>0.75516231580707061</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -5718,8 +8740,23 @@
       <c r="G201" s="4">
         <v>13.501737122040026</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201" s="5">
+        <v>6.4945562490213158</v>
+      </c>
+      <c r="I201" s="4">
+        <v>1.5343717102081516</v>
+      </c>
+      <c r="J201" s="5">
+        <v>0.37737428587570482</v>
+      </c>
+      <c r="K201" s="4">
+        <v>1.0297815683732716</v>
+      </c>
+      <c r="L201" s="6">
+        <v>0.67114217599435022</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -5741,8 +8778,23 @@
       <c r="G202" s="4">
         <v>14.113134721035067</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202" s="5">
+        <v>6.611809142043878</v>
+      </c>
+      <c r="I202" s="4">
+        <v>1.6000486661633724</v>
+      </c>
+      <c r="J202" s="5">
+        <v>0.38359765766212162</v>
+      </c>
+      <c r="K202" s="4">
+        <v>1.4078085176512032</v>
+      </c>
+      <c r="L202" s="6">
+        <v>0.87985356159626915</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -5764,8 +8816,23 @@
       <c r="G203" s="4">
         <v>17.664427824246332</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203" s="5">
+        <v>6.8579894572891371</v>
+      </c>
+      <c r="I203" s="4">
+        <v>1.993152288679946</v>
+      </c>
+      <c r="J203" s="5">
+        <v>0.39310209689982756</v>
+      </c>
+      <c r="K203" s="4">
+        <v>1.3330557984215721</v>
+      </c>
+      <c r="L203" s="6">
+        <v>0.66881783494047398</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -5787,8 +8854,23 @@
       <c r="G204" s="4">
         <v>13.404568517339271</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204" s="5">
+        <v>6.4238086481127459</v>
+      </c>
+      <c r="I204" s="4">
+        <v>1.5255690634059091</v>
+      </c>
+      <c r="J204" s="5">
+        <v>0.36666299657213491</v>
+      </c>
+      <c r="K204" s="4">
+        <v>1.2263028934574784</v>
+      </c>
+      <c r="L204" s="6">
+        <v>0.80383308948314403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -5810,8 +8892,23 @@
       <c r="G205" s="4">
         <v>13.276799106955764</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205" s="5">
+        <v>6.3786406939810929</v>
+      </c>
+      <c r="I205" s="4">
+        <v>1.5124706187767496</v>
+      </c>
+      <c r="J205" s="5">
+        <v>0.36380442422227377</v>
+      </c>
+      <c r="K205" s="4">
+        <v>1.285721137211729</v>
+      </c>
+      <c r="L205" s="6">
+        <v>0.85008007511021266</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -5833,8 +8930,23 @@
       <c r="G206" s="4">
         <v>12.332548071129395</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206" s="5">
+        <v>6.6391993777696694</v>
+      </c>
+      <c r="I206" s="4">
+        <v>1.397441658226926</v>
+      </c>
+      <c r="J206" s="5">
+        <v>0.37478443424051655</v>
+      </c>
+      <c r="K206" s="4">
+        <v>0.90777054352303099</v>
+      </c>
+      <c r="L206" s="6">
+        <v>0.64959459178768864</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -5856,8 +8968,23 @@
       <c r="G207" s="4">
         <v>14.40843549039937</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H207" s="5">
+        <v>6.5372875791478826</v>
+      </c>
+      <c r="I207" s="4">
+        <v>1.6359697258062529</v>
+      </c>
+      <c r="J207" s="5">
+        <v>0.36696759870553403</v>
+      </c>
+      <c r="K207" s="4">
+        <v>1.3505760837715726</v>
+      </c>
+      <c r="L207" s="6">
+        <v>0.82555078035198348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -5879,8 +9006,23 @@
       <c r="G208" s="4">
         <v>14.653420753313185</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H208" s="5">
+        <v>7.0578473436943563</v>
+      </c>
+      <c r="I208" s="4">
+        <v>1.6475011858386996</v>
+      </c>
+      <c r="J208" s="5">
+        <v>0.36731617065685318</v>
+      </c>
+      <c r="K208" s="4">
+        <v>1.4998187762727622</v>
+      </c>
+      <c r="L208" s="6">
+        <v>0.91035975522484613</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -5902,8 +9044,23 @@
       <c r="G209" s="4">
         <v>19.632207103322799</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H209" s="5">
+        <v>6.7162929861347411</v>
+      </c>
+      <c r="I209" s="4">
+        <v>2.2210798851637032</v>
+      </c>
+      <c r="J209" s="5">
+        <v>0.33447213415761679</v>
+      </c>
+      <c r="K209" s="4">
+        <v>1.8304704595317627</v>
+      </c>
+      <c r="L209" s="6">
+        <v>0.82413535495003087</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -5925,8 +9082,23 @@
       <c r="G210" s="4">
         <v>26.056126684294895</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H210" s="5">
+        <v>9.4418598997840562</v>
+      </c>
+      <c r="I210" s="4">
+        <v>2.8372979374904816</v>
+      </c>
+      <c r="J210" s="5">
+        <v>0.43696577748896526</v>
+      </c>
+      <c r="K210" s="4">
+        <v>2.558648822156842</v>
+      </c>
+      <c r="L210" s="6">
+        <v>0.90179067497574894</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -5948,8 +9120,23 @@
       <c r="G211" s="4">
         <v>17.801205110596584</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H211" s="5">
+        <v>10.492184438976089</v>
+      </c>
+      <c r="I211" s="4">
+        <v>1.9200461776972575</v>
+      </c>
+      <c r="J211" s="5">
+        <v>0.46240153597461997</v>
+      </c>
+      <c r="K211" s="4">
+        <v>1.5519286421773277</v>
+      </c>
+      <c r="L211" s="6">
+        <v>0.80827672803087525</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -5971,8 +9158,23 @@
       <c r="G212" s="4">
         <v>13.479727047651977</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H212" s="5">
+        <v>10.400996821235424</v>
+      </c>
+      <c r="I212" s="4">
+        <v>1.4551023302884725</v>
+      </c>
+      <c r="J212" s="5">
+        <v>0.4556928999337419</v>
+      </c>
+      <c r="K212" s="4">
+        <v>1.1082517476675879</v>
+      </c>
+      <c r="L212" s="6">
+        <v>0.76163148432858196</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -5994,8 +9196,23 @@
       <c r="G213" s="4">
         <v>16.701690217127634</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H213" s="5">
+        <v>12.027644437985487</v>
+      </c>
+      <c r="I213" s="4">
+        <v>1.7814624163422188</v>
+      </c>
+      <c r="J213" s="5">
+        <v>0.49589079965082289</v>
+      </c>
+      <c r="K213" s="4">
+        <v>1.5207133793889789</v>
+      </c>
+      <c r="L213" s="6">
+        <v>0.85363203031326274</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -6017,8 +9234,23 @@
       <c r="G214" s="4">
         <v>16.918239050847205</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H214" s="5">
+        <v>12.346701479974707</v>
+      </c>
+      <c r="I214" s="4">
+        <v>1.8009765517636813</v>
+      </c>
+      <c r="J214" s="5">
+        <v>0.50647292040506431</v>
+      </c>
+      <c r="K214" s="4">
+        <v>1.5506549005908321</v>
+      </c>
+      <c r="L214" s="6">
+        <v>0.86100782326804237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -6040,8 +9272,23 @@
       <c r="G215" s="4">
         <v>11.785036850742927</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H215" s="5">
+        <v>12.554263909784863</v>
+      </c>
+      <c r="I215" s="4">
+        <v>1.2530436984382707</v>
+      </c>
+      <c r="J215" s="5">
+        <v>0.51424054864365942</v>
+      </c>
+      <c r="K215" s="4">
+        <v>0.92002250002011898</v>
+      </c>
+      <c r="L215" s="6">
+        <v>0.73423017981478844</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -6063,8 +9310,23 @@
       <c r="G216" s="4">
         <v>13.434553323885439</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H216" s="5">
+        <v>12.736917497023654</v>
+      </c>
+      <c r="I216" s="4">
+        <v>1.4268980138351122</v>
+      </c>
+      <c r="J216" s="5">
+        <v>0.49250912108219513</v>
+      </c>
+      <c r="K216" s="4">
+        <v>1.1502048837379479</v>
+      </c>
+      <c r="L216" s="6">
+        <v>0.80608766189709069</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -6086,8 +9348,23 @@
       <c r="G217" s="4">
         <v>15.514459413620216</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H217" s="5">
+        <v>23.825417878567055</v>
+      </c>
+      <c r="I217" s="4">
+        <v>1.5919483855275807</v>
+      </c>
+      <c r="J217" s="5">
+        <v>0.66175940762033147</v>
+      </c>
+      <c r="K217" s="4">
+        <v>1.2245526586401432</v>
+      </c>
+      <c r="L217" s="6">
+        <v>0.76921630737061819</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -6109,8 +9386,23 @@
       <c r="G218" s="4">
         <v>18.759337826118099</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H218" s="5">
+        <v>25.072705994346432</v>
+      </c>
+      <c r="I218" s="4">
+        <v>1.92098106577404</v>
+      </c>
+      <c r="J218" s="5">
+        <v>0.66472545423182139</v>
+      </c>
+      <c r="K218" s="4">
+        <v>1.5509838873843889</v>
+      </c>
+      <c r="L218" s="6">
+        <v>0.80739155373165306</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
